--- a/.ecoalf/ecoalf_women_products.xlsx
+++ b/.ecoalf/ecoalf_women_products.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E459"/>
+  <dimension ref="A1:E456"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9657,7 +9657,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Home &gt; Women’s coats and jackets &gt; DARK GREEN LIE COAT</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -14151,95 +14151,22 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Pink
-                        Storm
-                        Sweatshirt</t>
-        </is>
-      </c>
-      <c r="B378" t="inlineStr">
-        <is>
-          <t>89,90€</t>
-        </is>
-      </c>
-      <c r="C378" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D378" t="inlineStr">
-        <is>
-          <t>[PRODUCT DETAILS]
-The Storm sweatshirt is made from 50% recycled cotton, a composition that gives a new lease of life to textile waste while cutting down on water consumption and other natural resources. It has our motto Because There Is No Planet B® printed on the chest. For every product sold from this collection, we’ll donate 10% to the ECOALF Foundation to support the Upcycling the Oceans project, which has already brought together more than 4,200 fishermen and recovered more than 1,450 tonnes of waste from the ocean. Primary fabric: 50% organic cotton/50% recycled cotton Oversized fit Round neck Ribbed cuffs and collar Flat decorative stitch Dropped shoulders Back text: "Because there is no planet B" ECOALF logo on the sleeve Vegan
-[SUSTAINABILITY REPORT]
-383,42 liters of water used 89% % of liters saved 6,72 kg CO2 eq used 60% % of kg CO2 eq saved 24 people behind with safe work &amp; better livelihoods + 16 processes from design to sale in a product ethically traded 14.700 km behind committed to sustainability B Corp B Corp certification guarantees
-and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
-[SUSTAINABILITY REPORT]
-383,42 liters of water used 89% % of liters saved 6,72 kg CO2 eq used 60% % of kg CO2 eq saved 24 people behind with safe work &amp; better livelihoods + 16 processes from design to sale in a product ethically traded 14.700 km behind committed to sustainability B Corp B Corp certification guarantees
-and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
-        </is>
-      </c>
-      <c r="E378" t="inlineStr">
-        <is>
-          <t>https://ecoalf.com/en/products/stormalf-sweatshirt-woman-light-mauve-aw24</t>
-        </is>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>Light
-                        Grey
-                        Storm
-                        Sweatshirt</t>
-        </is>
-      </c>
-      <c r="B379" t="inlineStr">
-        <is>
-          <t>89,90€</t>
-        </is>
-      </c>
-      <c r="C379" t="inlineStr">
-        <is>
-          <t>Home &gt; Women's sweatshirts &gt; LIGHT GREY STORM SWEATSHIRT</t>
-        </is>
-      </c>
-      <c r="D379" t="inlineStr">
-        <is>
-          <t>[PRODUCT DETAILS]
-The Storm sweatshirt is made from 50% recycled cotton, a composition that gives a new lease of life to textile waste while cutting down on water consumption and other natural resources. It has our motto Because There Is No Planet B® printed on the chest. For every product sold from this collection, we’ll donate 10% to the ECOALF Foundation to support the Upcycling the Oceans project, which has already brought together more than 4,200 fishermen and recovered more than 1,450 tonnes of waste from the ocean. Primary fabric: 50% organic cotton/50% recycled cotton Oversized fit Round neck Ribbed cuffs and collar Flat decorative stitch Dropped shoulders Back text: "Because there is no planet B" ECOALF logo on the sleeve Vegan
-[SUSTAINABILITY REPORT]
-383,42 liters of water used 89% % of liters saved 6,72 kg CO2 eq used 60% % of kg CO2 eq saved 24 people behind with safe work &amp; better livelihoods + 16 processes from design to sale in a product ethically traded 14.700 km behind committed to sustainability B Corp B Corp certification guarantees
-and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
-[SUSTAINABILITY REPORT]
-383,42 liters of water used 89% % of liters saved 6,72 kg CO2 eq used 60% % of kg CO2 eq saved 24 people behind with safe work &amp; better livelihoods + 16 processes from design to sale in a product ethically traded 14.700 km behind committed to sustainability B Corp B Corp certification guarantees
-and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
-        </is>
-      </c>
-      <c r="E379" t="inlineStr">
-        <is>
-          <t>https://ecoalf.com/en/products/stormalf-sweatshirt-woman-oyster-aw24</t>
-        </is>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
           <t>Orange
                         Storm
                         Sweatshirt</t>
         </is>
       </c>
-      <c r="B380" t="inlineStr">
+      <c r="B378" t="inlineStr">
         <is>
           <t>89,90€</t>
         </is>
       </c>
-      <c r="C380" t="inlineStr">
+      <c r="C378" t="inlineStr">
         <is>
           <t>Home &gt; Women's sweatshirts &gt; ORANGE STORM SWEATSHIRT</t>
         </is>
       </c>
-      <c r="D380" t="inlineStr">
+      <c r="D378" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Storm sweatshirt, made of 50% recycled cotton, is a wardrobe staple with a puff print on the back. With a round collar and dropped shoulders, it strikes the perfect balance between comfort and style. For every product sold from our Because There Is No Planet B® collection, we’ll donate 10% to the ECOALF Foundation to support the Upcycling the Oceans project, which has already brought together more than 4,200 fishermen and recovered more than 1,700 tonnes of waste from the ocean. Primary fabric: 50% Organic Cotton/50% Recycled Cotton Round neck Ribbed hem, cuffs and collar Decorative stitching Dropped shoulders Puff print on the back Ecoalf logo on the back Text: "Because there is no planet B" Vegan
@@ -14251,14 +14178,14 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E380" t="inlineStr">
+      <c r="E378" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/stormalf-sweatshirt-woman-peach-ss25</t>
         </is>
       </c>
     </row>
-    <row r="381">
-      <c r="A381" t="inlineStr">
+    <row r="379">
+      <c r="A379" t="inlineStr">
         <is>
           <t>Dark
                         Grey
@@ -14266,17 +14193,17 @@
                         Sweatshirt</t>
         </is>
       </c>
-      <c r="B381" t="inlineStr">
+      <c r="B379" t="inlineStr">
         <is>
           <t>89,90€</t>
         </is>
       </c>
-      <c r="C381" t="inlineStr">
+      <c r="C379" t="inlineStr">
         <is>
           <t>Home &gt; Women's sweatshirts &gt; DARK GREY STORM SWEATSHIRT</t>
         </is>
       </c>
-      <c r="D381" t="inlineStr">
+      <c r="D379" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Storm sweatshirt, made of 50% recycled cotton, is a wardrobe staple with a puff print on the back. With a round collar and dropped shoulders, it strikes the perfect balance between comfort and style. For every product sold from our Because There Is No Planet B® collection, we’ll donate 10% to the ECOALF Foundation to support the Upcycling the Oceans project, which has already brought together more than 4,200 fishermen and recovered more than 1,700 tonnes of waste from the ocean. Primary fabric: 50% Organic Cotton/50% Recycled Cotton Round neck Ribbed hem, cuffs and collar Decorative stitching Dropped shoulders Puff print on the back Ecoalf logo on the back Text: "Because there is no planet B" Vegan
@@ -14288,14 +14215,14 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E381" t="inlineStr">
+      <c r="E379" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/stormalf-sweatshirt-woman-storm-grey-ss25</t>
         </is>
       </c>
     </row>
-    <row r="382">
-      <c r="A382" t="inlineStr">
+    <row r="380">
+      <c r="A380" t="inlineStr">
         <is>
           <t>Dark
                         Grey
@@ -14303,17 +14230,17 @@
                         Trainers</t>
         </is>
       </c>
-      <c r="B382" t="inlineStr">
+      <c r="B380" t="inlineStr">
         <is>
           <t>89,90€</t>
         </is>
       </c>
-      <c r="C382" t="inlineStr">
+      <c r="C380" t="inlineStr">
         <is>
           <t>Home &gt; Sustainable women’s clothing: your style begins with a responsible choice &gt; DARK GREY STRENK TRAINERS</t>
         </is>
       </c>
-      <c r="D382" t="inlineStr">
+      <c r="D380" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Strenk boots are made of 70% recycled polyamide and 30% organic cotton. By using recycled polyamide as opposed to conventional polyamide, we drastically cut down on greenhouse gas emissions, reduce the use of non-renewable fossil resources, as well as reincorporate waste into the value chain, fostering a circular economy in the textile industry. • Primary fabric: 70% Recycled Polyamide/ 30% Organic Cotton • Lining: 70% Recycled Polyamide/ 30% Organic Cotton • Insole: 100% EVA • Sole: 80% Rubber / 20% Recycled rubber • Laces: 70% Recycled Polyester/30% Elastane • Vegan
@@ -14325,31 +14252,31 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E382" t="inlineStr">
+      <c r="E380" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/strenk-boot-woman-asphalt-aw25</t>
         </is>
       </c>
     </row>
-    <row r="383">
-      <c r="A383" t="inlineStr">
+    <row r="381">
+      <c r="A381" t="inlineStr">
         <is>
           <t>White
                         Strenk
                         Trainers</t>
         </is>
       </c>
-      <c r="B383" t="inlineStr">
+      <c r="B381" t="inlineStr">
         <is>
           <t>89,90€</t>
         </is>
       </c>
-      <c r="C383" t="inlineStr">
+      <c r="C381" t="inlineStr">
         <is>
           <t>Home &gt; Sustainable women’s clothing: your style begins with a responsible choice &gt; WHITE STRENK TRAINERS</t>
         </is>
       </c>
-      <c r="D383" t="inlineStr">
+      <c r="D381" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Strenk boots are made of 70% recycled polyamide and 30% organic cotton. By using recycled polyamide as opposed to conventional polyamide, we drastically cut down on greenhouse gas emissions, reduce the use of non-renewable fossil resources, as well as reincorporate waste into the value chain, fostering a circular economy in the textile industry. • Primary fabric: 70% Recycled Polyamide/ 30% Organic Cotton • Lining: 70% Recycled Polyamide/ 30% Organic Cotton • Insole: 100% EVA • Sole: 80% Rubber / 20% Recycled rubber • Laces: 70% Recycled Polyester/30% Elastane • Vegan
@@ -14361,31 +14288,31 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E383" t="inlineStr">
+      <c r="E381" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/strenk-boot-woman-off-white-aw25</t>
         </is>
       </c>
     </row>
-    <row r="384">
-      <c r="A384" t="inlineStr">
+    <row r="382">
+      <c r="A382" t="inlineStr">
         <is>
           <t>Green
                         Tarwa
                         Jacket</t>
         </is>
       </c>
-      <c r="B384" t="inlineStr">
+      <c r="B382" t="inlineStr">
         <is>
           <t>249,90€</t>
         </is>
       </c>
-      <c r="C384" t="inlineStr">
+      <c r="C382" t="inlineStr">
         <is>
           <t>Home &gt; Women’s coats and jackets &gt; GREEN TARWA JACKET</t>
         </is>
       </c>
-      <c r="D384" t="inlineStr">
+      <c r="D382" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Tarwa coat is made of 58% recycled Polyester (Ocean Yarn) and 42% recycled Polyester (Textile-to-Textile). 100% recycled polyester lining. Our recycled polyester ocean yarn is produced from bottles and other waste collected from the ocean, thanks to the Ecoalf Foundation, that strives to rid the oceans of marine debris. Recycled polyester can come from post-consumer PET bottles or from textile waste (production leftovers or used garments). We close the circular economy loop and prevent this waste from ending up in landfills, incinerators or being downcycled, giving a new lease of life to textile waste.
@@ -14397,31 +14324,31 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E384" t="inlineStr">
+      <c r="E382" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/tarwa-jacket-woman-asteroid-aw25</t>
         </is>
       </c>
     </row>
-    <row r="385">
-      <c r="A385" t="inlineStr">
+    <row r="383">
+      <c r="A383" t="inlineStr">
         <is>
           <t>Red
                         Tarwa
                         Jacket</t>
         </is>
       </c>
-      <c r="B385" t="inlineStr">
+      <c r="B383" t="inlineStr">
         <is>
           <t>249,90€</t>
         </is>
       </c>
-      <c r="C385" t="inlineStr">
+      <c r="C383" t="inlineStr">
         <is>
           <t>Home &gt; Women’s coats and jackets &gt; RED TARWA JACKET</t>
         </is>
       </c>
-      <c r="D385" t="inlineStr">
+      <c r="D383" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Tarwa coat is made of 58% recycled Polyester (Ocean Yarn) and 42% recycled Polyester (Textile-to-Textile). 100% recycled polyester lining. Our recycled polyester ocean yarn is produced from bottles and other waste collected from the ocean, thanks to the Ecoalf Foundation, that strives to rid the oceans of marine debris. Recycled polyester can come from post-consumer PET bottles or from textile waste (production leftovers or used garments). We close the circular economy loop and prevent this waste from ending up in landfills, incinerators or being downcycled, giving a new lease of life to textile waste.
@@ -14433,14 +14360,14 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E385" t="inlineStr">
+      <c r="E383" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/tarwa-jacket-woman-dark-red-aw25</t>
         </is>
       </c>
     </row>
-    <row r="386">
-      <c r="A386" t="inlineStr">
+    <row r="384">
+      <c r="A384" t="inlineStr">
         <is>
           <t>Reversible
                         Black
@@ -14448,17 +14375,17 @@
                         Jacket</t>
         </is>
       </c>
-      <c r="B386" t="inlineStr">
+      <c r="B384" t="inlineStr">
         <is>
           <t>275,00€</t>
         </is>
       </c>
-      <c r="C386" t="inlineStr">
+      <c r="C384" t="inlineStr">
         <is>
           <t>Home &gt; Women’s coats and jackets &gt; REVERSIBLE BLACK TIAGO JACKET</t>
         </is>
       </c>
-      <c r="D386" t="inlineStr">
+      <c r="D384" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Tiago coat is made of a blend of 100% recycled Polyamide and 100% recycled Polyester filling. By using recycled polyamide as opposed to conventional polyamide, we drastically cut down on greenhouse gas emissions, reduce the use of non-renewable fossil resources, as well as reincorporate waste into the value chain, fostering a circular economy in the textile industry. Reversible design for two looks in one, with water-resistant fabric to keep you comfortable no matter the weather. • Relaxed fit • Bomber collar • Central front placket fastened with press studs • Jet pockets on one side • Patch pockets on the other side • Brand printed inside on the back • Branded trims • Water-repellent • PFC-free
@@ -14470,14 +14397,14 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E386" t="inlineStr">
+      <c r="E384" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/tiago-jacket-woman-black-aw25</t>
         </is>
       </c>
     </row>
-    <row r="387">
-      <c r="A387" t="inlineStr">
+    <row r="385">
+      <c r="A385" t="inlineStr">
         <is>
           <t>Reversible
                         Beige
@@ -14485,17 +14412,17 @@
                         Jacket</t>
         </is>
       </c>
-      <c r="B387" t="inlineStr">
+      <c r="B385" t="inlineStr">
         <is>
           <t>275,00€</t>
         </is>
       </c>
-      <c r="C387" t="inlineStr">
+      <c r="C385" t="inlineStr">
         <is>
           <t>Home &gt; Women’s coats and jackets &gt; REVERSIBLE BEIGE TIAGO JACKET</t>
         </is>
       </c>
-      <c r="D387" t="inlineStr">
+      <c r="D385" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Tiago coat is made of a blend of 100% recycled Polyamide and 100% recycled Polyester filling. By using recycled polyamide as opposed to conventional polyamide, we drastically cut down on greenhouse gas emissions, reduce the use of non-renewable fossil resources, as well as reincorporate waste into the value chain, fostering a circular economy in the textile industry. Reversible design for two looks in one, with water-resistant fabric to keep you comfortable no matter the weather. • Relaxed fit • Bomber collar • Central front placket fastened with press studs • Jet pockets on one side • Patch pockets on the other side • Brand printed inside on the back • Branded trims • Water-repellent • PFC-free
@@ -14507,14 +14434,14 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E387" t="inlineStr">
+      <c r="E385" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/tiago-jacket-woman-dune-aw25</t>
         </is>
       </c>
     </row>
-    <row r="388">
-      <c r="A388" t="inlineStr">
+    <row r="386">
+      <c r="A386" t="inlineStr">
         <is>
           <t>Large
                         Black
@@ -14523,17 +14450,17 @@
                         Bag</t>
         </is>
       </c>
-      <c r="B388" t="inlineStr">
+      <c r="B386" t="inlineStr">
         <is>
           <t>109,90€</t>
         </is>
       </c>
-      <c r="C388" t="inlineStr">
+      <c r="C386" t="inlineStr">
         <is>
           <t>Home &gt; Sustainable accessories for women &gt; LARGE BLACK TIKA SHOULDER BAG</t>
         </is>
       </c>
-      <c r="D388" t="inlineStr">
+      <c r="D386" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Tika shoulder bag is made of 100% UTO recycled polyester. Our recycled polyester ocean yarn is produced from bottles and other waste collected from the ocean, thanks to the Ecoalf Foundation, that strives to rid the oceans of marine debris. Versatile and ideal for any occasion. • Lining: 100% Recycled Nylon • Structured knitted bag • Closed-knit structure for a sophisticated and elegant look • Twisted handle • Distinctive thermo-sealed label • Distinctive knitted material made of recycled polyester obtained from bottles collected from the bottom of the ocean (Upcycling The Oceans Project) • 30 x 23 x 15 cm (Height x Length x Width)
@@ -14545,14 +14472,14 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E388" t="inlineStr">
+      <c r="E386" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/tika-big-shoulder-bag-black-aw25</t>
         </is>
       </c>
     </row>
-    <row r="389">
-      <c r="A389" t="inlineStr">
+    <row r="387">
+      <c r="A387" t="inlineStr">
         <is>
           <t>Large
                         Red
@@ -14561,17 +14488,17 @@
                         Bag</t>
         </is>
       </c>
-      <c r="B389" t="inlineStr">
+      <c r="B387" t="inlineStr">
         <is>
           <t>109,90€</t>
         </is>
       </c>
-      <c r="C389" t="inlineStr">
+      <c r="C387" t="inlineStr">
         <is>
           <t>Home &gt; Sustainable accessories for women &gt; LARGE RED TIKA SHOULDER BAG</t>
         </is>
       </c>
-      <c r="D389" t="inlineStr">
+      <c r="D387" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Tika shoulder bag is made of 100% UTO recycled polyester. Our recycled polyester ocean yarn is produced from bottles and other waste collected from the ocean, thanks to the Ecoalf Foundation, that strives to rid the oceans of marine debris. Versatile and ideal for any occasion. • Lining: 100% Recycled Nylon • Structured knitted bag • Closed-knit structure for a sophisticated and elegant look • Twisted handle • Distinctive thermo-sealed label • Distinctive knitted material made of recycled polyester obtained from bottles collected from the bottom of the ocean (Upcycling The Oceans Project) • 30 x 23 x 15 cm (Height x Length x Width)
@@ -14583,14 +14510,14 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E389" t="inlineStr">
+      <c r="E387" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/tika-big-shoulder-bag-crimson-red-aw25</t>
         </is>
       </c>
     </row>
-    <row r="390">
-      <c r="A390" t="inlineStr">
+    <row r="388">
+      <c r="A388" t="inlineStr">
         <is>
           <t>Khaki
                         Tika
@@ -14598,17 +14525,17 @@
                         Bag</t>
         </is>
       </c>
-      <c r="B390" t="inlineStr">
+      <c r="B388" t="inlineStr">
         <is>
           <t>119,90€</t>
         </is>
       </c>
-      <c r="C390" t="inlineStr">
+      <c r="C388" t="inlineStr">
         <is>
           <t>Home &gt; Sustainable accessories for women &gt; KHAKI TIKA BUCKET BAG</t>
         </is>
       </c>
-      <c r="D390" t="inlineStr">
+      <c r="D388" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Tika bag is made of 100% UTO recycled polyester. Our recycled polyester ocean yarn is produced from bottles and other waste collected from the ocean, thanks to the Ecoalf Foundation, that strives to rid the oceans of marine debris. Its versatility is perfect for any situation. • Lining: 100% Recycled Nylon • Structured knitted bucket bag with shoulder strap and zip closure • Combined knit structures to create a sophisticated and elegant effect • Removable inner pocket with zip closure for small belongings and valuables • Distinctive thermo-sealed label • Distinctive knitted material made of recycled polyester obtained from bottles collected from the bottom of the ocean (Upcycling The Oceans Project) • 38 x 33 x 15 cm (Height x Length x Width) • Vegan
@@ -14620,14 +14547,14 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E390" t="inlineStr">
+      <c r="E388" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/tika-bucket-bag-khaki-aw25</t>
         </is>
       </c>
     </row>
-    <row r="391">
-      <c r="A391" t="inlineStr">
+    <row r="389">
+      <c r="A389" t="inlineStr">
         <is>
           <t>Black
                         Tika
@@ -14636,17 +14563,17 @@
                         Bag</t>
         </is>
       </c>
-      <c r="B391" t="inlineStr">
+      <c r="B389" t="inlineStr">
         <is>
           <t>89,90€</t>
         </is>
       </c>
-      <c r="C391" t="inlineStr">
+      <c r="C389" t="inlineStr">
         <is>
           <t>Home &gt; Sustainable accessories for women &gt; BLACK TIKA MINI SHOULDER BAG</t>
         </is>
       </c>
-      <c r="D391" t="inlineStr">
+      <c r="D389" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The mini Tika shoulder bag is made of 100% UTO recycled polyester. Our recycled polyester ocean yarn is produced from bottles and other waste collected from the ocean, thanks to the Ecoalf Foundation, that strives to rid the oceans of marine debris. Versatile and ideal for any occasion. • Lining: 100% Recycled Nylon • Structured knitted bag • Closed-knit structure for a sophisticated and elegant look • Twisted handle • Distinctive thermo-sealed label • Distinctive knitted material made of recycled polyester obtained from bottles collected from the bottom of the ocean (Upcycling The Oceans Project) • 30 x 23 x 15 cm (Height x Length x Width)
@@ -14658,14 +14585,14 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E391" t="inlineStr">
+      <c r="E389" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/tika-mini-shoulder-bag-black-aw25</t>
         </is>
       </c>
     </row>
-    <row r="392">
-      <c r="A392" t="inlineStr">
+    <row r="390">
+      <c r="A390" t="inlineStr">
         <is>
           <t>Red
                         Tiki
@@ -14674,17 +14601,17 @@
                         Bag</t>
         </is>
       </c>
-      <c r="B392" t="inlineStr">
+      <c r="B390" t="inlineStr">
         <is>
           <t>89,90€</t>
         </is>
       </c>
-      <c r="C392" t="inlineStr">
+      <c r="C390" t="inlineStr">
         <is>
           <t>Home &gt; Sustainable accessories for women &gt; RED TIKI MINI SHOULDER BAG</t>
         </is>
       </c>
-      <c r="D392" t="inlineStr">
+      <c r="D390" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The mini Tika shoulder bag is made of 100% UTO recycled polyester. Our recycled polyester ocean yarn is produced from bottles and other waste collected from the ocean, thanks to the Ecoalf Foundation, that strives to rid the oceans of marine debris. Versatile and ideal for any occasion. • Lining: 100% Recycled Nylon • Structured knitted bag • Closed-knit structure for a sophisticated and elegant look • Twisted handle • Distinctive thermo-sealed label • Distinctive knitted material made of recycled polyester obtained from bottles collected from the bottom of the ocean (Upcycling The Oceans Project) • 30 x 23 x 15 cm (Height x Length x Width)
@@ -14696,14 +14623,14 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E392" t="inlineStr">
+      <c r="E390" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/tika-mini-shoulder-bag-crimson-red-aw25</t>
         </is>
       </c>
     </row>
-    <row r="393">
-      <c r="A393" t="inlineStr">
+    <row r="391">
+      <c r="A391" t="inlineStr">
         <is>
           <t>Black
                         Tika
@@ -14711,17 +14638,17 @@
                         Bag</t>
         </is>
       </c>
-      <c r="B393" t="inlineStr">
+      <c r="B391" t="inlineStr">
         <is>
           <t>129,90€</t>
         </is>
       </c>
-      <c r="C393" t="inlineStr">
+      <c r="C391" t="inlineStr">
         <is>
           <t>Home &gt; Sustainable accessories for women &gt; BLACK TIKA SHOPPER BAG</t>
         </is>
       </c>
-      <c r="D393" t="inlineStr">
+      <c r="D391" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Tika shopper bag is made of 100% UTO recycled polyester. Our recycled polyester ocean yarn is produced from bottles and other waste collected from the ocean, thanks to the Ecoalf Foundation, that strives to rid the oceans of marine debris. Versatile and ideal for any occasion. • Lining: 100% Recycled Nylon • Structured knitted shopper bag with short handles and central zip closure • Combined knit structures to create a sophisticated and elegant effect • Removable inner pocket with zip closure for small belongings and valuables • Distinctive thermo-sealed label • 31 x 41 x 16 cm (Height x Length x Width) • 20 litres
@@ -14733,14 +14660,14 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E393" t="inlineStr">
+      <c r="E391" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/tika-shopper-black-aw25</t>
         </is>
       </c>
     </row>
-    <row r="394">
-      <c r="A394" t="inlineStr">
+    <row r="392">
+      <c r="A392" t="inlineStr">
         <is>
           <t>Khaki
                         Tika
@@ -14748,17 +14675,17 @@
                         Bag</t>
         </is>
       </c>
-      <c r="B394" t="inlineStr">
+      <c r="B392" t="inlineStr">
         <is>
           <t>129,90€</t>
         </is>
       </c>
-      <c r="C394" t="inlineStr">
+      <c r="C392" t="inlineStr">
         <is>
           <t>Home &gt; Sustainable accessories for women &gt; KHAKI TIKA SHOPPER BAG</t>
         </is>
       </c>
-      <c r="D394" t="inlineStr">
+      <c r="D392" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Tika shopper bag is made of 100% UTO recycled polyester. Our recycled polyester ocean yarn is produced from bottles and other waste collected from the ocean, thanks to the Ecoalf Foundation, that strives to rid the oceans of marine debris. Versatile and ideal for any occasion. • Lining: 100% Recycled Nylon • Structured knitted shopper bag with short handles and central zip closure • Combined knit structures to create a sophisticated and elegant effect • Removable inner pocket with zip closure for small belongings and valuables • Distinctive thermo-sealed label • 31 x 41 x 16 cm (Height x Length x Width) • 20 litres
@@ -14770,31 +14697,31 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E394" t="inlineStr">
+      <c r="E392" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/tika-shopper-khaki-aw25</t>
         </is>
       </c>
     </row>
-    <row r="395">
-      <c r="A395" t="inlineStr">
+    <row r="393">
+      <c r="A393" t="inlineStr">
         <is>
           <t>Black
                         Travel
                         Bag</t>
         </is>
       </c>
-      <c r="B395" t="inlineStr">
+      <c r="B393" t="inlineStr">
         <is>
           <t>129,90€</t>
         </is>
       </c>
-      <c r="C395" t="inlineStr">
+      <c r="C393" t="inlineStr">
         <is>
           <t>Home &gt; MEN'S SUITCASES AND TRAVEL BAGS &gt; BLACK TRAVEL BAG</t>
         </is>
       </c>
-      <c r="D395" t="inlineStr">
+      <c r="D393" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Travel bag is made of 63% recycled Polyester, 37% Polyester, 35% ECOVERO™. Ideal for getaways or everyday use. • Lining: 100% Recycled Polyamide • Water-repellent
@@ -14806,31 +14733,31 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E395" t="inlineStr">
+      <c r="E393" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/travel-bag-black-aw25</t>
         </is>
       </c>
     </row>
-    <row r="396">
-      <c r="A396" t="inlineStr">
+    <row r="394">
+      <c r="A394" t="inlineStr">
         <is>
           <t>Khaki
                         Travel
                         Bag</t>
         </is>
       </c>
-      <c r="B396" t="inlineStr">
+      <c r="B394" t="inlineStr">
         <is>
           <t>99,90€</t>
         </is>
       </c>
-      <c r="C396" t="inlineStr">
+      <c r="C394" t="inlineStr">
         <is>
           <t>Home &gt; MEN'S SUITCASES AND TRAVEL BAGS &gt; KHAKI TRAVEL BAG</t>
         </is>
       </c>
-      <c r="D396" t="inlineStr">
+      <c r="D394" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Travel bag is made of 63% recycled Polyester, 37% Polyester, 35% ECOVERO™. Ideal for getaways or everyday use. • Lining: 100% Recycled Polyamide • Water-repellent
@@ -14842,14 +14769,14 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E396" t="inlineStr">
+      <c r="E394" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/travel-bag-deep-khaki-aw25</t>
         </is>
       </c>
     </row>
-    <row r="397">
-      <c r="A397" t="inlineStr">
+    <row r="395">
+      <c r="A395" t="inlineStr">
         <is>
           <t>Navy
                         Blue
@@ -14857,17 +14784,17 @@
                         Bag</t>
         </is>
       </c>
-      <c r="B397" t="inlineStr">
+      <c r="B395" t="inlineStr">
         <is>
           <t>99,90€</t>
         </is>
       </c>
-      <c r="C397" t="inlineStr">
+      <c r="C395" t="inlineStr">
         <is>
           <t>Home &gt; MEN'S SUITCASES AND TRAVEL BAGS &gt; NAVY BLUE TRAVEL BAG</t>
         </is>
       </c>
-      <c r="D397" t="inlineStr">
+      <c r="D395" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Travel bag is made of 63% recycled Polyester, 37% Polyester, 35% ECOVERO™. Ideal for getaways or everyday use. • Lining: 100% Recycled Polyamide • Water-repellent
@@ -14879,31 +14806,31 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E397" t="inlineStr">
+      <c r="E395" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/travel-bag-deep-navy-aw25</t>
         </is>
       </c>
     </row>
-    <row r="398">
-      <c r="A398" t="inlineStr">
+    <row r="396">
+      <c r="A396" t="inlineStr">
         <is>
           <t>White
                         Trima
                         Shirt</t>
         </is>
       </c>
-      <c r="B398" t="inlineStr">
+      <c r="B396" t="inlineStr">
         <is>
           <t>99,90€</t>
         </is>
       </c>
-      <c r="C398" t="inlineStr">
+      <c r="C396" t="inlineStr">
         <is>
           <t>Home &gt; Sustainable women’s clothing: your style begins with a responsible choice &gt; WHITE TRIMA SHIRT</t>
         </is>
       </c>
-      <c r="D398" t="inlineStr">
+      <c r="D396" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Trima shirt is made of 72% TENCEL™ Lyocell and 28% organic cotton. TENCEL™ Lyocell fibres come from wood pulp from certified forests and closed-loop processes in accordance with the most stringent environmental standards. Elegance and versatility in a shirt that comes in easy-to-match shades. • Regular fit • Pleat in front placket • Back yoke with central pleat • Back is longer than the front • Branded trims • Garment washed
@@ -14915,14 +14842,14 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E398" t="inlineStr">
+      <c r="E396" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/trima-shirt-woman-white-aw25</t>
         </is>
       </c>
     </row>
-    <row r="399">
-      <c r="A399" t="inlineStr">
+    <row r="397">
+      <c r="A397" t="inlineStr">
         <is>
           <t>Light
                         Blue
@@ -14930,17 +14857,17 @@
                         Shirt</t>
         </is>
       </c>
-      <c r="B399" t="inlineStr">
+      <c r="B397" t="inlineStr">
         <is>
           <t>99,90€</t>
         </is>
       </c>
-      <c r="C399" t="inlineStr">
+      <c r="C397" t="inlineStr">
         <is>
           <t>Home &gt; Sustainable women’s shirts: style with an eco-conscious approach &gt; LIGHT BLUE TRIMA SHIRT</t>
         </is>
       </c>
-      <c r="D399" t="inlineStr">
+      <c r="D397" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Trima shirt is made from TENCEL™ Lyocell a fibre that’s derived from the pulp of wood from certified bio-based forests and is manufactured in an environmentally-friendly way. A timeless and sustainable shirt that’s a must-have in your wardrobe. Primary fabric: 100% TENCEL™ Lyocell Regular fit Front pleat Back yoke Back longer than front Vegan
@@ -14952,14 +14879,14 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E399" t="inlineStr">
+      <c r="E397" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/trimaalf-shirt-woman-skyblue-aw24</t>
         </is>
       </c>
     </row>
-    <row r="400">
-      <c r="A400" t="inlineStr">
+    <row r="398">
+      <c r="A398" t="inlineStr">
         <is>
           <t>Navy
                         Blue
@@ -14967,17 +14894,17 @@
                         Vest</t>
         </is>
       </c>
-      <c r="B400" t="inlineStr">
+      <c r="B398" t="inlineStr">
         <is>
           <t>199,90€</t>
         </is>
       </c>
-      <c r="C400" t="inlineStr">
+      <c r="C398" t="inlineStr">
         <is>
           <t>Home &gt; Women’s coats and jackets &gt; NAVY BLUE STUART VEST</t>
         </is>
       </c>
-      <c r="D400" t="inlineStr">
+      <c r="D398" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Stuart vest is made of 100% recycled wool. The filling is made of 100% recycled polyester. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. Functional and cosy vest with zip fastening and fleece fabric that keeps the cold at bay on winter days. • Regular cut • High collar • Ribbed collar and pockets • Central front fastening with personalised zip • Front zipped padded pockets • Brand details
@@ -14989,31 +14916,31 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E400" t="inlineStr">
+      <c r="E398" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/tuart-hybrid-vest-woman-deep-navy-aw25</t>
         </is>
       </c>
     </row>
-    <row r="401">
-      <c r="A401" t="inlineStr">
+    <row r="399">
+      <c r="A399" t="inlineStr">
         <is>
           <t>Beige
                         Stuart
                         Vest</t>
         </is>
       </c>
-      <c r="B401" t="inlineStr">
+      <c r="B399" t="inlineStr">
         <is>
           <t>199,90€</t>
         </is>
       </c>
-      <c r="C401" t="inlineStr">
+      <c r="C399" t="inlineStr">
         <is>
           <t>Home &gt; Women’s coats and jackets &gt; BEIGE STUART VEST</t>
         </is>
       </c>
-      <c r="D401" t="inlineStr">
+      <c r="D399" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Stuart vest is made of 100% recycled wool. The filling is made of 100% recycled polyester. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. Functional and cosy vest with zip fastening and fleece fabric that keeps the cold at bay on winter days. • Regular cut • High collar • Ribbed collar and pockets • Central front fastening with personalised zip • Front zipped padded pockets • Brand details
@@ -15025,31 +14952,31 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E401" t="inlineStr">
+      <c r="E399" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/tuart-hybrid-vest-woman-toast-melange-aw25</t>
         </is>
       </c>
     </row>
-    <row r="402">
-      <c r="A402" t="inlineStr">
+    <row r="400">
+      <c r="A400" t="inlineStr">
         <is>
           <t>Beige
                         Tuya
                         Sweater</t>
         </is>
       </c>
-      <c r="B402" t="inlineStr">
+      <c r="B400" t="inlineStr">
         <is>
           <t>129,90€</t>
         </is>
       </c>
-      <c r="C402" t="inlineStr">
+      <c r="C400" t="inlineStr">
         <is>
           <t>Home &gt; Sustainable women’s clothing: your style begins with a responsible choice &gt; BEIGE TUYA SWEATER</t>
         </is>
       </c>
-      <c r="D402" t="inlineStr">
+      <c r="D400" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Tuya sweater is made of 80% recycled wool, ECOALF’s alternative to prevent the use of virgin animal-derived products. Our motto is printed on the back: 'Because there is no planet B' For every product sold from our Because There Is No Planet B® collection, we’ll donate 10% to the ECOALF Foundation to support the Upcycling the Oceans project, which has already brought together more than 4,200 fishermen and recovered more than 1,700 tonnes of waste from the ocean. • Regular Fit • Round neck • Ribbed cuffs and collar • Vegan
@@ -15061,31 +14988,31 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E402" t="inlineStr">
+      <c r="E400" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/tuya-knit-woman-oat-melange-aw25</t>
         </is>
       </c>
     </row>
-    <row r="403">
-      <c r="A403" t="inlineStr">
+    <row r="401">
+      <c r="A401" t="inlineStr">
         <is>
           <t>Black
                         Tuya
                         Sweater</t>
         </is>
       </c>
-      <c r="B403" t="inlineStr">
+      <c r="B401" t="inlineStr">
         <is>
           <t>129,90€</t>
         </is>
       </c>
-      <c r="C403" t="inlineStr">
+      <c r="C401" t="inlineStr">
         <is>
           <t>Home &gt; Women's knit jumpers &gt; BLACK TUYA SWEATER</t>
         </is>
       </c>
-      <c r="D403" t="inlineStr">
+      <c r="D401" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Tuya sweater is made from 80% recycled wool, ECOALF’s alternative to prevent the use of virgin animal-derived products. Our motto is printed on the back: "Because there is no planet B". For every product sold from our Because There Is No Planet B® collection, we’ll donate 10% to the ECOALF Foundation to support the Upcycling the Oceans project, which has already brought together more than 4,200 fishermen and recovered more than 1,700 tonnes of waste from the ocean. Primary fabric: 80% recycled wool/20% recycled cotton Regular fit Round neck Ribbed cuffs and collar
@@ -15097,31 +15024,31 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E403" t="inlineStr">
+      <c r="E401" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/tuyaalf-knit-woman-black-aw24</t>
         </is>
       </c>
     </row>
-    <row r="404">
-      <c r="A404" t="inlineStr">
+    <row r="402">
+      <c r="A402" t="inlineStr">
         <is>
           <t>Black
                         Uclaalf
                         Trainers</t>
         </is>
       </c>
-      <c r="B404" t="inlineStr">
+      <c r="B402" t="inlineStr">
         <is>
           <t>79,90€</t>
         </is>
       </c>
-      <c r="C404" t="inlineStr">
+      <c r="C402" t="inlineStr">
         <is>
           <t>Home &gt; Sustainable women’s sneakers &gt; BLACK UCLAALF TRAINERS</t>
         </is>
       </c>
-      <c r="D404" t="inlineStr">
+      <c r="D402" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 Uclaalf trainers are made from 100% recycled nylon, the synthetic fibre that releases the least microplastics. The sole is made from recycled rubber. A vegan and sustainable trainer made entirely from recycled fibres. Main fabric: 100% recycled nylon 20% recycled polyurethane No metal components ECOALF logo on the flap Vegan
@@ -15133,31 +15060,31 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E404" t="inlineStr">
+      <c r="E402" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/uclaalf-sneakers-woman-black-aw24</t>
         </is>
       </c>
     </row>
-    <row r="405">
-      <c r="A405" t="inlineStr">
+    <row r="403">
+      <c r="A403" t="inlineStr">
         <is>
           <t>Black
                         Uclaalf
                         Trainers</t>
         </is>
       </c>
-      <c r="B405" t="inlineStr">
+      <c r="B403" t="inlineStr">
         <is>
           <t>79,90€</t>
         </is>
       </c>
-      <c r="C405" t="inlineStr">
+      <c r="C403" t="inlineStr">
         <is>
           <t>Home &gt; Sustainable women’s clothing: your style begins with a responsible choice &gt; BLACK UCLAALF TRAINERS</t>
         </is>
       </c>
-      <c r="D405" t="inlineStr">
+      <c r="D403" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Ucla trainers are made of 100% recycled polyester. Recycled polyester cuts down on the use of fossil resources, CO2 emissions, and water and energy consumption by reusing plastic waste such as PET bottles, while maintaining the properties of virgin polyester. Their elevated comfort and simplicity make them perfect for everyday wear. • Primary fabric: 100% Recycled Polyester • Secondary fabric: 65% PU/35% Recycled Polyester • Lining: 100% Recycled Polyester • Insole: 50% recycled PU / 50% PU • Midsole: 90% recycled EVA/10% EVA • Sole: 80% Rubber / 20% Recycled rubber • Laces: 97% Recycled Polyester/3% Cellulose Acetate • Vegan
@@ -15169,31 +15096,31 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E405" t="inlineStr">
+      <c r="E403" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/uclaalf-sneakers-woman-black-aw25</t>
         </is>
       </c>
     </row>
-    <row r="406">
-      <c r="A406" t="inlineStr">
+    <row r="404">
+      <c r="A404" t="inlineStr">
         <is>
           <t>Purple
                         Uclaalf
                         Trainers</t>
         </is>
       </c>
-      <c r="B406" t="inlineStr">
+      <c r="B404" t="inlineStr">
         <is>
           <t>79,90€</t>
         </is>
       </c>
-      <c r="C406" t="inlineStr">
+      <c r="C404" t="inlineStr">
         <is>
           <t>Home &gt; Sustainable women’s clothing: your style begins with a responsible choice &gt; PURPLE UCLAALF TRAINERS</t>
         </is>
       </c>
-      <c r="D406" t="inlineStr">
+      <c r="D404" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Ucla trainers are made of 100% recycled polyester. Recycled polyester cuts down on the use of fossil resources, CO2 emissions, and water and energy consumption by reusing plastic waste such as PET bottles, while maintaining the properties of virgin polyester. Their elevated comfort and simplicity make them perfect for everyday wear. • Primary fabric: 100% Recycled Polyester • Secondary fabric: 65% PU/35% Recycled Polyester • Lining: 100% Recycled Polyester • Insole: 50% recycled PU / 50% PU • Midsole: 90% recycled EVA/10% EVA • Sole: 80% Rubber / 20% Recycled rubber • Laces: 97% Recycled Polyester/3% Cellulose Acetate • Vegan
@@ -15205,31 +15132,31 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E406" t="inlineStr">
+      <c r="E404" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/uclaalf-sneakers-woman-blueberry-aw25</t>
         </is>
       </c>
     </row>
-    <row r="407">
-      <c r="A407" t="inlineStr">
+    <row r="405">
+      <c r="A405" t="inlineStr">
         <is>
           <t>Uclaalf
                         Grey
                         Trainers</t>
         </is>
       </c>
-      <c r="B407" t="inlineStr">
+      <c r="B405" t="inlineStr">
         <is>
           <t>79,90€</t>
         </is>
       </c>
-      <c r="C407" t="inlineStr">
+      <c r="C405" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="D407" t="inlineStr">
+      <c r="D405" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 Uclaalf shoes are made from 100% recycled nylon, the synthetic fibre that releases the least microplastics. The sole is made from recycled rubber. A vegan and sustainable trainer made entirely from recycled fibres. Main fabric: 100% recycled nylon 20% recycled polyurethane No metal components ECOALF logo on the flap Vegan
@@ -15241,31 +15168,31 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E407" t="inlineStr">
+      <c r="E405" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/uclaalf-sneakers-woman-grey-aw24</t>
         </is>
       </c>
     </row>
-    <row r="408">
-      <c r="A408" t="inlineStr">
+    <row r="406">
+      <c r="A406" t="inlineStr">
         <is>
           <t>White
                         Uclaalf
                         Trainers</t>
         </is>
       </c>
-      <c r="B408" t="inlineStr">
+      <c r="B406" t="inlineStr">
         <is>
           <t>79,90€</t>
         </is>
       </c>
-      <c r="C408" t="inlineStr">
+      <c r="C406" t="inlineStr">
         <is>
           <t>Home &gt; Sustainable women’s sneakers &gt; WHITE UCLAALF TRAINERS</t>
         </is>
       </c>
-      <c r="D408" t="inlineStr">
+      <c r="D406" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Uclaalf trainers, made of 100% recycled polyamide, strike the perfect balance between a contemporary and sustainable design. Using recycled polyamide leads to significant CO2 and water savings while giving waste a new lease of life. Their insole, made of 70% EVA and 30% recycled EVA, ensures comfort and a versatile style, perfect for any occasion. Primary fabric: 100% Recycled polyamide Vegan suede: 70% Polyester/20% Viscose/10% PU Glue Lining: 100% Recycled polyester Insole: 70% EVA/30% Recycled EVA Sole: 70% Rubber/30% Recycled rubber Laces: 97% Recycled polyester/3% Cellulose acetate Midsole: 70% EVA/30% Recycled EVA Assembly: sealed Vegan
@@ -15277,31 +15204,31 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E408" t="inlineStr">
+      <c r="E406" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/uclaalf-sneakers-woman-off-white-ss25</t>
         </is>
       </c>
     </row>
-    <row r="409">
-      <c r="A409" t="inlineStr">
+    <row r="407">
+      <c r="A407" t="inlineStr">
         <is>
           <t>White/green
                         Uclaalf
                         Trainers</t>
         </is>
       </c>
-      <c r="B409" t="inlineStr">
+      <c r="B407" t="inlineStr">
         <is>
           <t>79,90€</t>
         </is>
       </c>
-      <c r="C409" t="inlineStr">
+      <c r="C407" t="inlineStr">
         <is>
           <t>Home &gt; Sustainable women’s clothing: your style begins with a responsible choice &gt; WHITE/GREEN UCLAALF TRAINERS</t>
         </is>
       </c>
-      <c r="D409" t="inlineStr">
+      <c r="D407" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Ucla trainers are made of 100% recycled polyester. Recycled polyester cuts down on the use of fossil resources, CO2 emissions, and water and energy consumption by reusing plastic waste such as PET bottles, while maintaining the properties of virgin polyester. Their elevated comfort and simplicity make them perfect for everyday wear. • Primary fabric: 100% Recycled Polyester • Secondary fabric: 65% PU/35% Recycled Polyester • Lining: 100% Recycled Polyester • Insole: 50% recycled PU / 50% PU • Midsole: 90% recycled EVA/10% EVA • Sole: 80% Rubber / 20% Recycled rubber • Laces: 97% Recycled Polyester/3% Cellulose Acetate • Vegan
@@ -15313,31 +15240,31 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E409" t="inlineStr">
+      <c r="E407" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/uclaalf-sneakers-woman-off-white-urban-green-aw25</t>
         </is>
       </c>
     </row>
-    <row r="410">
-      <c r="A410" t="inlineStr">
+    <row r="408">
+      <c r="A408" t="inlineStr">
         <is>
           <t>Beige
                         Uclaalf
                         Trainers</t>
         </is>
       </c>
-      <c r="B410" t="inlineStr">
+      <c r="B408" t="inlineStr">
         <is>
           <t>79,90€</t>
         </is>
       </c>
-      <c r="C410" t="inlineStr">
+      <c r="C408" t="inlineStr">
         <is>
           <t>Home &gt; Sustainable women’s sneakers &gt; BEIGE UCLAALF TRAINERS</t>
         </is>
       </c>
-      <c r="D410" t="inlineStr">
+      <c r="D408" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 Uclaalf shoes are made from 100% recycled nylon, the synthetic fibre that releases the least microplastics. The sole is made from recycled rubber. A vegan and sustainable trainer made entirely from recycled fibres. Main fabric: 100% recycled nylon 20% recycled polyurethane No metal components ECOALF logo on the flap Vegan
@@ -15349,31 +15276,31 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E410" t="inlineStr">
+      <c r="E408" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/uclaalf-sneakers-woman-off-whitebeige-aw24</t>
         </is>
       </c>
     </row>
-    <row r="411">
-      <c r="A411" t="inlineStr">
+    <row r="409">
+      <c r="A409" t="inlineStr">
         <is>
           <t>Red
                         Uclaalf
                         Trainers</t>
         </is>
       </c>
-      <c r="B411" t="inlineStr">
+      <c r="B409" t="inlineStr">
         <is>
           <t>79,90€</t>
         </is>
       </c>
-      <c r="C411" t="inlineStr">
+      <c r="C409" t="inlineStr">
         <is>
           <t>Home &gt; Sustainable women’s clothing: your style begins with a responsible choice &gt; RED UCLAALF TRAINERS</t>
         </is>
       </c>
-      <c r="D411" t="inlineStr">
+      <c r="D409" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Ucla trainers are made of 100% recycled polyester. Recycled polyester cuts down on the use of fossil resources, CO2 emissions, and water and energy consumption by reusing plastic waste such as PET bottles, while maintaining the properties of virgin polyester. Their elevated comfort and simplicity make them perfect for everyday wear. • Primary fabric: 100% Recycled Polyester • Secondary fabric: 65% PU/35% Recycled Polyester • Lining: 100% Recycled Polyester • Insole: 50% recycled PU / 50% PU • Midsole: 90% recycled EVA/10% EVA • Sole: 80% Rubber / 20% Recycled rubber • Laces: 97% Recycled Polyester/3% Cellulose Acetate • Vegan
@@ -15385,31 +15312,31 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E411" t="inlineStr">
+      <c r="E409" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/uclaalf-sneakers-woman-red-aw25</t>
         </is>
       </c>
     </row>
-    <row r="412">
-      <c r="A412" t="inlineStr">
+    <row r="410">
+      <c r="A410" t="inlineStr">
         <is>
           <t>Polka-dot
                         Uclaalf
                         Trainers</t>
         </is>
       </c>
-      <c r="B412" t="inlineStr">
+      <c r="B410" t="inlineStr">
         <is>
           <t>79,90€</t>
         </is>
       </c>
-      <c r="C412" t="inlineStr">
+      <c r="C410" t="inlineStr">
         <is>
           <t>Home &gt; Sustainable women’s clothing: your style begins with a responsible choice &gt; POLKA-DOT UCLAALF TRAINERS</t>
         </is>
       </c>
-      <c r="D412" t="inlineStr">
+      <c r="D410" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Ucla trainers are made of 100% recycled polyester. Recycled polyester cuts down on the use of fossil resources, CO2 emissions, and water and energy consumption by reusing plastic waste such as PET bottles, while maintaining the properties of virgin polyester. Their elevated comfort and simplicity make them perfect for everyday wear. • Primary fabric: 100% Recycled Polyester • Secondary fabric: 65% PU/35% Recycled Polyester • Lining: 100% Recycled Polyester • Insole: 50% recycled PU / 50% PU • Midsole: 90% recycled EVA/10% EVA • Sole: 80% Rubber / 20% Recycled rubber • Laces: 97% Recycled Polyester/3% Cellulose Acetate • Vegan
@@ -15421,31 +15348,31 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E412" t="inlineStr">
+      <c r="E410" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/uclaalf-sneakers-woman-topo-aw25</t>
         </is>
       </c>
     </row>
-    <row r="413">
-      <c r="A413" t="inlineStr">
+    <row r="411">
+      <c r="A411" t="inlineStr">
         <is>
           <t>Violet
                         Valley
                         Trousers</t>
         </is>
       </c>
-      <c r="B413" t="inlineStr">
+      <c r="B411" t="inlineStr">
         <is>
           <t>109,90€</t>
         </is>
       </c>
-      <c r="C413" t="inlineStr">
+      <c r="C411" t="inlineStr">
         <is>
           <t>Home &gt; Sustainable Women's Trousers &gt; VIOLET VALLEY TROUSERS</t>
         </is>
       </c>
-      <c r="D413" t="inlineStr">
+      <c r="D411" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Valley trousers are made of 58% regenerative cotton, 29% recycled cotton and 13% Spanish-grown cotton. Regenerative cotton strengthens agricultural resilience through sustainable practices while empowering producers, improving soil health and ensuring decent working conditions. The non-recycled cotton in this garment comes from the www.eucotton.eu programme, an alliance between Spanish and Greek cotton producers aiming to establish their own cotton designation: 'eucotton'. All this is achieved through environmentally friendly cultivation practices, while meeting social and traceability standards and ensuring a low carbon footprint thanks to its local sourcing. Simple and functional, these trousers come in a variety of colours for maximum versatility. • High waist • Belt loops at the waist • Zip closure • Button fastening at the waist • Patch pockets at the back • Garment dyed • Branded trims • Vegan
@@ -15457,14 +15384,14 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E413" t="inlineStr">
+      <c r="E411" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/valley-pants-woman-blueberry-aw25</t>
         </is>
       </c>
     </row>
-    <row r="414">
-      <c r="A414" t="inlineStr">
+    <row r="412">
+      <c r="A412" t="inlineStr">
         <is>
           <t>Light
                         Grey
@@ -15472,17 +15399,17 @@
                         Trousers</t>
         </is>
       </c>
-      <c r="B414" t="inlineStr">
+      <c r="B412" t="inlineStr">
         <is>
           <t>109,90€</t>
         </is>
       </c>
-      <c r="C414" t="inlineStr">
+      <c r="C412" t="inlineStr">
         <is>
           <t>Home &gt; Sustainable Women's Trousers &gt; LIGHT GREY VALLEY TROUSERS</t>
         </is>
       </c>
-      <c r="D414" t="inlineStr">
+      <c r="D412" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Valley trousers are made of 58% regenerative cotton, 29% recycled cotton and 13% Spanish-grown cotton. Regenerative cotton strengthens agricultural resilience through sustainable practices while empowering producers, improving soil health and ensuring decent working conditions. The non-recycled cotton in this garment comes from the www.eucotton.eu programme, an alliance between Spanish and Greek cotton producers aiming to establish their own cotton designation: 'eucotton'. All this is achieved through environmentally friendly cultivation practices, while meeting social and traceability standards and ensuring a low carbon footprint thanks to its local sourcing. Simple and functional, these trousers come in a variety of colours for maximum versatility. • High waist • Belt loops at the waist • Zip closure • Button fastening at the waist • Patch pockets at the back • Garment dyed • Branded trims • Vegan
@@ -15494,31 +15421,31 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E414" t="inlineStr">
+      <c r="E412" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/valley-pants-woman-bone-aw25</t>
         </is>
       </c>
     </row>
-    <row r="415">
-      <c r="A415" t="inlineStr">
+    <row r="413">
+      <c r="A413" t="inlineStr">
         <is>
           <t>Beige
                         Valley
                         Trousers</t>
         </is>
       </c>
-      <c r="B415" t="inlineStr">
+      <c r="B413" t="inlineStr">
         <is>
           <t>109,90€</t>
         </is>
       </c>
-      <c r="C415" t="inlineStr">
+      <c r="C413" t="inlineStr">
         <is>
           <t>Home &gt; Sustainable Women's Trousers &gt; BEIGE VALLEY TROUSERS</t>
         </is>
       </c>
-      <c r="D415" t="inlineStr">
+      <c r="D413" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Valley trousers are made of 58% regenerative cotton, 29% recycled cotton and 13% Spanish-grown cotton. Regenerative cotton strengthens agricultural resilience through sustainable practices while empowering producers, improving soil health and ensuring decent working conditions. The non-recycled cotton in this garment comes from the www.eucotton.eu programme, an alliance between Spanish and Greek cotton producers aiming to establish their own cotton designation: 'eucotton'. All this is achieved through environmentally friendly cultivation practices, while meeting social and traceability standards and ensuring a low carbon footprint thanks to its local sourcing. Simple and functional, these trousers come in a variety of colours for maximum versatility. • High waist • Belt loops at the waist • Zip closure • Button fastening at the waist • Patch pockets at the back • Garment dyed • Branded trims • Vegan
@@ -15530,31 +15457,31 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E415" t="inlineStr">
+      <c r="E413" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/valley-pants-woman-oat-aw25</t>
         </is>
       </c>
     </row>
-    <row r="416">
-      <c r="A416" t="inlineStr">
+    <row r="414">
+      <c r="A414" t="inlineStr">
         <is>
           <t>Black
                         Valley
                         Trousers</t>
         </is>
       </c>
-      <c r="B416" t="inlineStr">
+      <c r="B414" t="inlineStr">
         <is>
           <t>109,90€</t>
         </is>
       </c>
-      <c r="C416" t="inlineStr">
+      <c r="C414" t="inlineStr">
         <is>
           <t>Home &gt; Sustainable Women's Trousers &gt; BLACK VALLEY TROUSERS</t>
         </is>
       </c>
-      <c r="D416" t="inlineStr">
+      <c r="D414" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Valley trousers are made of 58% regenerative cotton, 29% recycled cotton and 13% Spanish-grown cotton. Regenerative cotton strengthens agricultural resilience through sustainable practices while empowering producers, improving soil health and ensuring decent working conditions. The non-recycled cotton in this garment comes from the www.eucotton.eu programme, an alliance between Spanish and Greek cotton producers aiming to establish their own cotton designation: 'eucotton'. All this is achieved through environmentally friendly cultivation practices, while meeting social and traceability standards and ensuring a low carbon footprint thanks to its local sourcing. Simple and functional, these trousers come in a variety of colours for maximum versatility. • High waist • Belt loops at the waist • Zip closure • Button fastening at the waist • Patch pockets at the back • Garment dyed • Branded trims • Vegan
@@ -15566,31 +15493,31 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E416" t="inlineStr">
+      <c r="E414" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/valley-pants-woman-shadow-black-aw25</t>
         </is>
       </c>
     </row>
-    <row r="417">
-      <c r="A417" t="inlineStr">
+    <row r="415">
+      <c r="A415" t="inlineStr">
         <is>
           <t>Blue
                         Valley
                         Trousers</t>
         </is>
       </c>
-      <c r="B417" t="inlineStr">
+      <c r="B415" t="inlineStr">
         <is>
           <t>109,90€</t>
         </is>
       </c>
-      <c r="C417" t="inlineStr">
+      <c r="C415" t="inlineStr">
         <is>
           <t>Home &gt; Sustainable Women's Trousers &gt; BLUE VALLEY TROUSERS</t>
         </is>
       </c>
-      <c r="D417" t="inlineStr">
+      <c r="D415" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Valley trousers are made of 58% regenerative cotton, 29% recycled cotton and 13% Spanish-grown cotton. Regenerative cotton strengthens agricultural resilience through sustainable practices while empowering producers, improving soil health and ensuring decent working conditions. The non-recycled cotton in this garment comes from the www.eucotton.eu programme, an alliance between Spanish and Greek cotton producers aiming to establish their own cotton designation: 'eucotton'. All this is achieved through environmentally friendly cultivation practices, while meeting social and traceability standards and ensuring a low carbon footprint thanks to its local sourcing. Simple and functional, these trousers come in a variety of colours for maximum versatility. • High waist • Belt loops at the waist • Zip closure • Button fastening at the waist • Patch pockets at the back • Garment dyed • Branded trims • Vegan
@@ -15602,31 +15529,31 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E417" t="inlineStr">
+      <c r="E415" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/valley-pants-woman-storm-blue-aw25</t>
         </is>
       </c>
     </row>
-    <row r="418">
-      <c r="A418" t="inlineStr">
+    <row r="416">
+      <c r="A416" t="inlineStr">
         <is>
           <t>Brown
                         Ventura
                         Trainers</t>
         </is>
       </c>
-      <c r="B418" t="inlineStr">
+      <c r="B416" t="inlineStr">
         <is>
           <t>99,90€</t>
         </is>
       </c>
-      <c r="C418" t="inlineStr">
+      <c r="C416" t="inlineStr">
         <is>
           <t>Home &gt; Sustainable women’s clothing: your style begins with a responsible choice &gt; BROWN VENTURA TRAINERS</t>
         </is>
       </c>
-      <c r="D418" t="inlineStr">
+      <c r="D416" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Ventura trainers are made of 100% recycled polyester. Recycled polyester cuts down on the use of fossil resources, CO2 emissions, and water and energy consumption by reusing plastic waste such as PET bottles, while maintaining the properties of virgin polyester. Comfortable, elegant and perfect for everyday wear. • Primary fabric: 100% Recycled Polyester • Secondary fabric: 80% PU/20% Recycled Polyester • Lining: 70% PU/30% Recycled Polyester • Insole: 80% recycled PU / 20% PU • Midsole: 50% recycled EVA/50% EVA • Sole: 80% Rubber / 20% Recycled rubber • Laces: 97% Recycled Polyester/3% Cellulose Acetate • Vegan
@@ -15638,31 +15565,31 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E418" t="inlineStr">
+      <c r="E416" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/ventura-sneakers-woman-biscotti-aw25</t>
         </is>
       </c>
     </row>
-    <row r="419">
-      <c r="A419" t="inlineStr">
+    <row r="417">
+      <c r="A417" t="inlineStr">
         <is>
           <t>Black
                         Ventura
                         Trainers</t>
         </is>
       </c>
-      <c r="B419" t="inlineStr">
+      <c r="B417" t="inlineStr">
         <is>
           <t>99,90€</t>
         </is>
       </c>
-      <c r="C419" t="inlineStr">
+      <c r="C417" t="inlineStr">
         <is>
           <t>Home &gt; Sustainable women’s clothing: your style begins with a responsible choice &gt; BLACK VENTURA TRAINERS</t>
         </is>
       </c>
-      <c r="D419" t="inlineStr">
+      <c r="D417" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Ventura trainers are made of 100% recycled polyester. Recycled polyester cuts down on the use of fossil resources, CO2 emissions, and water and energy consumption by reusing plastic waste such as PET bottles, while maintaining the properties of virgin polyester. Comfortable, elegant and perfect for everyday wear. • Primary fabric: 100% Recycled Polyester • Secondary fabric: 80% PU/20% Recycled Polyester • Lining: 70% PU/30% Recycled Polyester • Insole: 80% recycled PU / 20% PU • Midsole: 50% recycled EVA/50% EVA • Sole: 80% Rubber / 20% Recycled rubber • Laces: 97% Recycled Polyester/3% Cellulose Acetate • Vegan
@@ -15674,31 +15601,31 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E419" t="inlineStr">
+      <c r="E417" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/ventura-sneakers-woman-black-aw25</t>
         </is>
       </c>
     </row>
-    <row r="420">
-      <c r="A420" t="inlineStr">
+    <row r="418">
+      <c r="A418" t="inlineStr">
         <is>
           <t>Violet
                         Ventura
                         Trainers</t>
         </is>
       </c>
-      <c r="B420" t="inlineStr">
+      <c r="B418" t="inlineStr">
         <is>
           <t>99,90€</t>
         </is>
       </c>
-      <c r="C420" t="inlineStr">
+      <c r="C418" t="inlineStr">
         <is>
           <t>Home &gt; Sustainable women’s clothing: your style begins with a responsible choice &gt; VIOLET VENTURA TRAINERS</t>
         </is>
       </c>
-      <c r="D420" t="inlineStr">
+      <c r="D418" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Ventura trainers are made of 100% recycled polyester. Recycled polyester cuts down on the use of fossil resources, CO2 emissions, and water and energy consumption by reusing plastic waste such as PET bottles, while maintaining the properties of virgin polyester. Comfortable, elegant and perfect for everyday wear. • Primary fabric: 100% Recycled Polyester • Secondary fabric: 80% PU/20% Recycled Polyester • Lining: 70% PU/30% Recycled Polyester • Insole: 80% recycled PU / 20% PU • Midsole: 50% recycled EVA/50% EVA • Sole: 80% Rubber / 20% Recycled rubber • Laces: 97% Recycled Polyester/3% Cellulose Acetate • Vegan
@@ -15710,14 +15637,14 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E420" t="inlineStr">
+      <c r="E418" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/ventura-sneakers-woman-blueberry-aw25</t>
         </is>
       </c>
     </row>
-    <row r="421">
-      <c r="A421" t="inlineStr">
+    <row r="419">
+      <c r="A419" t="inlineStr">
         <is>
           <t>Dark
                         Grey
@@ -15725,17 +15652,17 @@
                         Trainers</t>
         </is>
       </c>
-      <c r="B421" t="inlineStr">
+      <c r="B419" t="inlineStr">
         <is>
           <t>99,90€</t>
         </is>
       </c>
-      <c r="C421" t="inlineStr">
+      <c r="C419" t="inlineStr">
         <is>
           <t>Home &gt; Sustainable women’s clothing: your style begins with a responsible choice &gt; DARK GREY VENTURA TRAINERS</t>
         </is>
       </c>
-      <c r="D421" t="inlineStr">
+      <c r="D419" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Ventura trainers are made of 100% recycled polyester. Recycled polyester cuts down on the use of fossil resources, CO2 emissions, and water and energy consumption by reusing plastic waste such as PET bottles, while maintaining the properties of virgin polyester. Comfortable, elegant and perfect for everyday wear. • Primary fabric: 100% Recycled Polyester • Secondary fabric: 80% PU/20% Recycled Polyester • Lining: 70% PU/30% Recycled Polyester • Insole: 80% recycled PU / 20% PU • Midsole: 50% recycled EVA/50% EVA • Sole: 80% Rubber / 20% Recycled rubber • Laces: 97% Recycled Polyester/3% Cellulose Acetate • Vegan
@@ -15747,31 +15674,31 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E421" t="inlineStr">
+      <c r="E419" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/ventura-sneakers-woman-dark-grey-aw25</t>
         </is>
       </c>
     </row>
-    <row r="422">
-      <c r="A422" t="inlineStr">
+    <row r="420">
+      <c r="A420" t="inlineStr">
         <is>
           <t>Green
                         Ventura
                         Trainers</t>
         </is>
       </c>
-      <c r="B422" t="inlineStr">
+      <c r="B420" t="inlineStr">
         <is>
           <t>99,90€</t>
         </is>
       </c>
-      <c r="C422" t="inlineStr">
+      <c r="C420" t="inlineStr">
         <is>
           <t>Home &gt; Sustainable women’s clothing: your style begins with a responsible choice &gt; GREEN VENTURA TRAINERS</t>
         </is>
       </c>
-      <c r="D422" t="inlineStr">
+      <c r="D420" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Ventura trainers are made of 100% recycled polyester. Recycled polyester cuts down on the use of fossil resources, CO2 emissions, and water and energy consumption by reusing plastic waste such as PET bottles, while maintaining the properties of virgin polyester. Comfortable, elegant and perfect for everyday wear. • Primary fabric: 100% Recycled Polyester • Secondary fabric: 80% PU/20% Recycled Polyester • Lining: 70% PU/30% Recycled Polyester • Insole: 80% recycled PU / 20% PU • Midsole: 50% recycled EVA/50% EVA • Sole: 80% Rubber / 20% Recycled rubber • Laces: 97% Recycled Polyester/3% Cellulose Acetate • Vegan
@@ -15783,31 +15710,31 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E422" t="inlineStr">
+      <c r="E420" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/ventura-sneakers-woman-dusty-green-aw25</t>
         </is>
       </c>
     </row>
-    <row r="423">
-      <c r="A423" t="inlineStr">
+    <row r="421">
+      <c r="A421" t="inlineStr">
         <is>
           <t>White
                         Ventura
                         Trainers</t>
         </is>
       </c>
-      <c r="B423" t="inlineStr">
+      <c r="B421" t="inlineStr">
         <is>
           <t>99,90€</t>
         </is>
       </c>
-      <c r="C423" t="inlineStr">
+      <c r="C421" t="inlineStr">
         <is>
           <t>Home &gt; Sustainable women’s clothing: your style begins with a responsible choice &gt; WHITE VENTURA TRAINERS</t>
         </is>
       </c>
-      <c r="D423" t="inlineStr">
+      <c r="D421" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Ventura trainers are made of 100% recycled polyester. Recycled polyester cuts down on the use of fossil resources, CO2 emissions, and water and energy consumption by reusing plastic waste such as PET bottles, while maintaining the properties of virgin polyester. Comfortable, elegant and perfect for everyday wear. • Primary fabric: 100% Recycled Polyester • Secondary fabric: 80% PU/20% Recycled Polyester • Lining: 70% PU/30% Recycled Polyester • Insole: 80% recycled PU / 20% PU • Midsole: 50% recycled EVA/50% EVA • Sole: 80% Rubber / 20% Recycled rubber • Laces: 97% Recycled Polyester/3% Cellulose Acetate • Vegan
@@ -15819,31 +15746,31 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E423" t="inlineStr">
+      <c r="E421" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/ventura-sneakers-woman-off-white-aw25</t>
         </is>
       </c>
     </row>
-    <row r="424">
-      <c r="A424" t="inlineStr">
+    <row r="422">
+      <c r="A422" t="inlineStr">
         <is>
           <t>Purple
                         Ventura
                         Trainers</t>
         </is>
       </c>
-      <c r="B424" t="inlineStr">
+      <c r="B422" t="inlineStr">
         <is>
           <t>99,90€</t>
         </is>
       </c>
-      <c r="C424" t="inlineStr">
+      <c r="C422" t="inlineStr">
         <is>
           <t>Home &gt; Sustainable women’s clothing: your style begins with a responsible choice &gt; PURPLE VENTURA TRAINERS</t>
         </is>
       </c>
-      <c r="D424" t="inlineStr">
+      <c r="D422" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Ventura trainers are made of 100% recycled polyester. Recycled polyester cuts down on the use of fossil resources, CO2 emissions, and water and energy consumption by reusing plastic waste such as PET bottles, while maintaining the properties of virgin polyester. Comfortable, elegant and perfect for everyday wear. • Primary fabric: 100% Recycled Polyester • Secondary fabric: 80% PU/20% Recycled Polyester • Lining: 70% PU/30% Recycled Polyester • Insole: 80% recycled PU / 20% PU • Midsole: 50% recycled EVA/50% EVA • Sole: 80% Rubber / 20% Recycled rubber • Laces: 97% Recycled Polyester/3% Cellulose Acetate • Vegan
@@ -15855,31 +15782,31 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E424" t="inlineStr">
+      <c r="E422" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/ventura-sneakers-woman-soft-violet-aw25</t>
         </is>
       </c>
     </row>
-    <row r="425">
-      <c r="A425" t="inlineStr">
+    <row r="423">
+      <c r="A423" t="inlineStr">
         <is>
           <t>White
                         Ventura
                         Trainers</t>
         </is>
       </c>
-      <c r="B425" t="inlineStr">
+      <c r="B423" t="inlineStr">
         <is>
           <t>99,90€</t>
         </is>
       </c>
-      <c r="C425" t="inlineStr">
+      <c r="C423" t="inlineStr">
         <is>
           <t>Home &gt; Sustainable women’s sneakers &gt; WHITE VENTURA TRAINERS</t>
         </is>
       </c>
-      <c r="D425" t="inlineStr">
+      <c r="D423" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Ventura trainers, made of 100% recycled polyester, strike the perfect balance between a contemporary and sustainable design. The recycled polyester comes from recovered textiles that are turned into top-quality thread, thereby doing its bit for the Circular Economy. Their versatile style means they go well with all your everyday outfits. Primary fabric: 100% Recycled polyester Vegan suede: 80% Polyurethane/20% Recycled polyurethane Lining: 70% Polyurethane/30% Recycled polyester Insole: 80% Recycled polyurethane/20% Polyurethane Sole: 80% Rubber/20% Recycled rubber Midsole: 50% EVA/50% Recycled EVA Assembly: Strobel (reduces carbon footprint) Vegan
@@ -15891,31 +15818,31 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E425" t="inlineStr">
+      <c r="E423" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/venturaalf-sneakers-woman-off-white-ss25</t>
         </is>
       </c>
     </row>
-    <row r="426">
-      <c r="A426" t="inlineStr">
+    <row r="424">
+      <c r="A424" t="inlineStr">
         <is>
           <t>Ventura
                         Beige
                         Turnschuhe</t>
         </is>
       </c>
-      <c r="B426" t="inlineStr">
+      <c r="B424" t="inlineStr">
         <is>
           <t>99,90€</t>
         </is>
       </c>
-      <c r="C426" t="inlineStr">
+      <c r="C424" t="inlineStr">
         <is>
           <t>Home &gt; Sustainable women’s sneakers &gt; VENTURA BEIGE TURNSCHUHE</t>
         </is>
       </c>
-      <c r="D426" t="inlineStr">
+      <c r="D424" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 They are very light and have been designed to make you feel good while walking. Thanks to their phylon midsole and rubber outsole, you are guaranteed comfort and durability. Nylon upper: 100% recycled nylon Suede upper: 80% polyurethane/20% recycled polyurethane Inner reinforcement: 100% polyester Lining: 70% polyurethane/ 30% recycled polyester Midsole: 50% recycled eva/ 50% recycled eva Bottom: 80% normal rubber/ 20% recycled rubber Laces: 100% recycled polyester Sockliner raw material: 80% recycled polyurethane/ 20% normal polyurethane Insole lining: 100% recycled polyester Fitting: strobel fitting reduces carbon footprint
@@ -15927,31 +15854,31 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E426" t="inlineStr">
+      <c r="E424" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/venturaalf-sneakers-woman-off-whitebeige-aw24</t>
         </is>
       </c>
     </row>
-    <row r="427">
-      <c r="A427" t="inlineStr">
+    <row r="425">
+      <c r="A425" t="inlineStr">
         <is>
           <t>Black
                         Ventura
                         Trainers</t>
         </is>
       </c>
-      <c r="B427" t="inlineStr">
+      <c r="B425" t="inlineStr">
         <is>
           <t>99,90€</t>
         </is>
       </c>
-      <c r="C427" t="inlineStr">
+      <c r="C425" t="inlineStr">
         <is>
           <t>Home &gt; Sustainable women’s sneakers &gt; BLACK VENTURA TRAINERS</t>
         </is>
       </c>
-      <c r="D427" t="inlineStr">
+      <c r="D425" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 They are very light and have been designed to make you feel good while walking. Thanks to their phylon midsole and rubber outsole, you are guaranteed comfort and durability. Nylon upper: 100% recycled nylon Suede upper: 80% polyurethane/20% recycled polyurethane Inner reinforcement: 100% polyester Lining: 70% polyurethane/ 30% recycled polyester Midsole: 50% recycled eva/ 50% recycled eva Bottom: 80% normal rubber/ 20% recycled rubber Laces: 100% recycled polyester Sockliner raw material: 80% recycled polyurethane/ 20% normal polyurethane Insole lining: 100% recycled polyester Fitting: strobel fitting reduces carbon footprint
@@ -15963,31 +15890,31 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E427" t="inlineStr">
+      <c r="E425" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/venturaalf-sneakers-woman-total-black-aw24</t>
         </is>
       </c>
     </row>
-    <row r="428">
-      <c r="A428" t="inlineStr">
+    <row r="426">
+      <c r="A426" t="inlineStr">
         <is>
           <t>Black
                         Verona
                         Trainers</t>
         </is>
       </c>
-      <c r="B428" t="inlineStr">
+      <c r="B426" t="inlineStr">
         <is>
           <t>109,90€</t>
         </is>
       </c>
-      <c r="C428" t="inlineStr">
+      <c r="C426" t="inlineStr">
         <is>
           <t>Home &gt; Sustainable women’s clothing: your style begins with a responsible choice &gt; BLACK VERONA TRAINERS</t>
         </is>
       </c>
-      <c r="D428" t="inlineStr">
+      <c r="D426" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Verona trainers are made of 59% recycled polyester/ 41% Sorona®. Sorona® is a biopolymer derived from the residues of maize production, thereby cutting down on the use of fossil fuels. What’s more, it can be recycled along with polyester. The fact that they are extremely comfortable make them perfect for any occasion. • Primary fabric: 59% recycled polyester/41% Sorona® • Lining: 100% Recycled Polyester • Insole: 100% Recycled Polyester • Midsole: 70% EVA/30% Recycled EVA • Sole: 100% TPU • Laces: 100% Recycled Polyester • Vegan
@@ -15999,14 +15926,14 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E428" t="inlineStr">
+      <c r="E426" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/verona-sneakers-woman-black-aw25</t>
         </is>
       </c>
     </row>
-    <row r="429">
-      <c r="A429" t="inlineStr">
+    <row r="427">
+      <c r="A427" t="inlineStr">
         <is>
           <t>Navy
                         Blue
@@ -16014,17 +15941,17 @@
                         Trainers</t>
         </is>
       </c>
-      <c r="B429" t="inlineStr">
+      <c r="B427" t="inlineStr">
         <is>
           <t>109,90€</t>
         </is>
       </c>
-      <c r="C429" t="inlineStr">
+      <c r="C427" t="inlineStr">
         <is>
           <t>Home &gt; Sustainable women’s clothing: your style begins with a responsible choice &gt; NAVY BLUE VERONA TRAINERS</t>
         </is>
       </c>
-      <c r="D429" t="inlineStr">
+      <c r="D427" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Verona trainers are made of 59% recycled polyester/ 41% Sorona®. Sorona® is a biopolymer derived from the residues of maize production, thereby cutting down on the use of fossil fuels. What’s more, it can be recycled along with polyester. The fact that they are extremely comfortable make them perfect for any occasion. • Primary fabric: 59% recycled polyester/41% Sorona® • Lining: 100% Recycled Polyester • Insole: 100% Recycled Polyester • Midsole: 70% EVA/30% Recycled EVA • Sole: 100% TPU • Laces: 100% Recycled Polyester • Vegan
@@ -16036,31 +15963,31 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E429" t="inlineStr">
+      <c r="E427" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/verona-sneakers-woman-deep-navy-aw25</t>
         </is>
       </c>
     </row>
-    <row r="430">
-      <c r="A430" t="inlineStr">
+    <row r="428">
+      <c r="A428" t="inlineStr">
         <is>
           <t>Khaki
                         Verona
                         Trainers</t>
         </is>
       </c>
-      <c r="B430" t="inlineStr">
+      <c r="B428" t="inlineStr">
         <is>
           <t>109,90€</t>
         </is>
       </c>
-      <c r="C430" t="inlineStr">
+      <c r="C428" t="inlineStr">
         <is>
           <t>Home &gt; Sustainable women’s clothing: your style begins with a responsible choice &gt; KHAKI VERONA TRAINERS</t>
         </is>
       </c>
-      <c r="D430" t="inlineStr">
+      <c r="D428" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Verona trainers are made of 59% recycled polyester/ 41% Sorona®. Sorona® is a biopolymer derived from the residues of maize production, thereby cutting down on the use of fossil fuels. What’s more, it can be recycled along with polyester. The fact that they are extremely comfortable make them perfect for any occasion. • Primary fabric: 59% recycled polyester/41% Sorona® • Lining: 100% Recycled Polyester • Insole: 100% Recycled Polyester • Midsole: 70% EVA/30% Recycled EVA • Sole: 100% TPU • Laces: 100% Recycled Polyester • Vegan
@@ -16072,31 +15999,31 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E430" t="inlineStr">
+      <c r="E428" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/verona-sneakers-woman-khaki-aw25</t>
         </is>
       </c>
     </row>
-    <row r="431">
-      <c r="A431" t="inlineStr">
+    <row r="429">
+      <c r="A429" t="inlineStr">
         <is>
           <t>Black
                         Wakai
                         Backpack</t>
         </is>
       </c>
-      <c r="B431" t="inlineStr">
+      <c r="B429" t="inlineStr">
         <is>
           <t>79,90€</t>
         </is>
       </c>
-      <c r="C431" t="inlineStr">
+      <c r="C429" t="inlineStr">
         <is>
           <t>Home &gt; Sustainable accessories for men &gt; BLACK WAKAI BACKPACK</t>
         </is>
       </c>
-      <c r="D431" t="inlineStr">
+      <c r="D429" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Wakai backpack is made of 100% recycled polyester. Recycled polyester cuts down on the use of fossil resources, CO2 emissions, and water and energy consumption by reusing plastic waste such as PET bottles, while maintaining the properties of virgin polyester. Versatile and the perfect size for everyday use. • Lining: 100% Recycled Polyamide • Filling: 100% Polythene • Mesh: 100% Recycled Polyester • Straps: 100% Recycled Polyester • Number 8 recycled nylon zip with inverted spiral, always in black, for the main compartment • Front pocket with recycled black plastic zip • Adjustable side pockets, suitable for bottles • Padded base to protect laptop and content • Separate padded pocket with reverse spiral zip for laptop/tablet • Customised lacquered matte black handles with contrasting rope knot • Interior zip pocket for valuables and small belongings (keys, phone, wallet, etc.) • Neoprene padding with padded mesh on back panel and bottom of straps for extra comfort • Distinctive water-repellent fabric • 45 x 29 x 16 cm (Height x Length x Width) • 20 litres • Water-repellent • Vegan
@@ -16108,31 +16035,31 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E431" t="inlineStr">
+      <c r="E429" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/wakai-backpack-black-aw25</t>
         </is>
       </c>
     </row>
-    <row r="432">
-      <c r="A432" t="inlineStr">
+    <row r="430">
+      <c r="A430" t="inlineStr">
         <is>
           <t>Green
                         Wakai
                         Backpack</t>
         </is>
       </c>
-      <c r="B432" t="inlineStr">
+      <c r="B430" t="inlineStr">
         <is>
           <t>79,90€</t>
         </is>
       </c>
-      <c r="C432" t="inlineStr">
+      <c r="C430" t="inlineStr">
         <is>
           <t>Home &gt; Sustainable accessories for men &gt; GREEN WAKAI BACKPACK</t>
         </is>
       </c>
-      <c r="D432" t="inlineStr">
+      <c r="D430" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Wakai backpack is made of 100% recycled polyester. Recycled polyester cuts down on the use of fossil resources, CO2 emissions, and water and energy consumption by reusing plastic waste such as PET bottles, while maintaining the properties of virgin polyester. Versatile and the perfect size for everyday use. • Lining: 100% Recycled Polyamide • Filling: 100% Polythene • Mesh: 100% Recycled Polyester • Straps: 100% Recycled Polyester • Number 8 recycled nylon zip with inverted spiral, always in black, for the main compartment • Front pocket with recycled black plastic zip • Adjustable side pockets, suitable for bottles • Padded base to protect laptop and content • Separate padded pocket with reverse spiral zip for laptop/tablet • Customised lacquered matte black handles with contrasting rope knot • Interior zip pocket for valuables and small belongings (keys, phone, wallet, etc.) • Neoprene padding with padded mesh on back panel and bottom of straps for extra comfort • Distinctive water-repellent fabric • 45 x 29 x 16 cm (Height x Length x Width) • 20 litres • Water-repellent • Vegan
@@ -16144,14 +16071,14 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E432" t="inlineStr">
+      <c r="E430" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/wakai-backpack-forest-night-aw25</t>
         </is>
       </c>
     </row>
-    <row r="433">
-      <c r="A433" t="inlineStr">
+    <row r="431">
+      <c r="A431" t="inlineStr">
         <is>
           <t>Dark
                         Green
@@ -16159,17 +16086,17 @@
                         Backpack</t>
         </is>
       </c>
-      <c r="B433" t="inlineStr">
+      <c r="B431" t="inlineStr">
         <is>
           <t>79,90€</t>
         </is>
       </c>
-      <c r="C433" t="inlineStr">
+      <c r="C431" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="D433" t="inlineStr">
+      <c r="D431" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Wakai rucksack is made from 100% recycled nylon, ECOALF’s alternative to virgin nylon. This allows us to give a second life to materials that would otherwise be considered waste. A backpack with different compartments that’s perfect to take with you anywhere. Primary fabric: 100% recycled nylon 100% recycled nylon Side pocket for bottles Padded bottom Inside pocket with zip Capacity: 20 litres Length: 29 cm / Width 16 cm / Height: 45 cm Water-repellent PFC-free Vegan
@@ -16181,14 +16108,14 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E433" t="inlineStr">
+      <c r="E431" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/wakaialf-backpack-forest-night-aw24</t>
         </is>
       </c>
     </row>
-    <row r="434">
-      <c r="A434" t="inlineStr">
+    <row r="432">
+      <c r="A432" t="inlineStr">
         <is>
           <t>Black
                         Wakai
@@ -16196,17 +16123,17 @@
                         Bag</t>
         </is>
       </c>
-      <c r="B434" t="inlineStr">
+      <c r="B432" t="inlineStr">
         <is>
           <t>29,90€</t>
         </is>
       </c>
-      <c r="C434" t="inlineStr">
+      <c r="C432" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="D434" t="inlineStr">
+      <c r="D432" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The small Wakai toiletry bag is made from 100% recycled nylon, ECOALF’s alternative to virgin nylon. This allows us to give a second life to materials that would otherwise be considered waste. A water-repellent accessory with several interior compartments. Primary fabric: 100% recycled nylon 100% recycled nylon Main compartment with two-way zip Inside pocket Length: 17 cm / Width: 8 cm / Height: 12 cm Water-repellent PFC-free Vegan
@@ -16218,14 +16145,14 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E434" t="inlineStr">
+      <c r="E432" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/wakaialf-small-tech-organizer-black-aw24</t>
         </is>
       </c>
     </row>
-    <row r="435">
-      <c r="A435" t="inlineStr">
+    <row r="433">
+      <c r="A433" t="inlineStr">
         <is>
           <t>Small
                         Black
@@ -16234,17 +16161,17 @@
                         Organiser</t>
         </is>
       </c>
-      <c r="B435" t="inlineStr">
+      <c r="B433" t="inlineStr">
         <is>
           <t>29,90€</t>
         </is>
       </c>
-      <c r="C435" t="inlineStr">
+      <c r="C433" t="inlineStr">
         <is>
           <t>Home &gt; Sustainable accessories for men &gt; SMALL BLACK WAKAIALF TECH ORGANISER</t>
         </is>
       </c>
-      <c r="D435" t="inlineStr">
+      <c r="D433" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The small Wakai organiser is made of 100% recycled polyester. Recycled polyester cuts down on the use of fossil resources, CO2 emissions, and water and energy consumption by reusing plastic waste such as PET bottles, while maintaining the properties of virgin polyester. • Lining: 100% Recycled Polyamide • Filling: 100% PE • Vegan
@@ -16256,14 +16183,14 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E435" t="inlineStr">
+      <c r="E433" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/wakaialf-small-tech-organizer-black-aw25</t>
         </is>
       </c>
     </row>
-    <row r="436">
-      <c r="A436" t="inlineStr">
+    <row r="434">
+      <c r="A434" t="inlineStr">
         <is>
           <t>Navy
                         Blue
@@ -16272,17 +16199,17 @@
                         Bag</t>
         </is>
       </c>
-      <c r="B436" t="inlineStr">
+      <c r="B434" t="inlineStr">
         <is>
           <t>29,90€</t>
         </is>
       </c>
-      <c r="C436" t="inlineStr">
+      <c r="C434" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="D436" t="inlineStr">
+      <c r="D434" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The small Wakai toiletry bag is made from 100% recycled nylon, ECOALF’s alternative to virgin nylon. This allows us to give a second life to materials that would otherwise be considered waste. A water-repellent accessory with several interior compartments. Primary fabric: 100% recycled nylon 100% recycled nylon Main compartment with two-way zip Inside pocket Length: 17 cm / Width: 8 cm / Height: 12 cm Water-repellent PFC-free Vegan
@@ -16294,14 +16221,14 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E436" t="inlineStr">
+      <c r="E434" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/wakaialf-small-tech-organizer-deep-navy-aw24</t>
         </is>
       </c>
     </row>
-    <row r="437">
-      <c r="A437" t="inlineStr">
+    <row r="435">
+      <c r="A435" t="inlineStr">
         <is>
           <t>Green
                         Wakai
@@ -16309,17 +16236,17 @@
                         Bag</t>
         </is>
       </c>
-      <c r="B437" t="inlineStr">
+      <c r="B435" t="inlineStr">
         <is>
           <t>29,90€</t>
         </is>
       </c>
-      <c r="C437" t="inlineStr">
+      <c r="C435" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="D437" t="inlineStr">
+      <c r="D435" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The small Wakai toiletry bag is made from 100% recycled nylon, ECOALF’s alternative to virgin nylon. This allows us to give a second life to materials that would otherwise be considered waste. A water-repellent accessory with several interior compartments. Primary fabric: 100% recycled nylon 100% recycled nylon Main compartment with two-way zip Inside pocket Length: 17 cm / Width: 8 cm / Height: 12 cm Water-repellent PFC-free Vegan
@@ -16331,14 +16258,14 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E437" t="inlineStr">
+      <c r="E435" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/wakaialf-small-tech-organizer-forest-night-aw24</t>
         </is>
       </c>
     </row>
-    <row r="438">
-      <c r="A438" t="inlineStr">
+    <row r="436">
+      <c r="A436" t="inlineStr">
         <is>
           <t>Small
                         Green
@@ -16347,17 +16274,17 @@
                         Organiser</t>
         </is>
       </c>
-      <c r="B438" t="inlineStr">
+      <c r="B436" t="inlineStr">
         <is>
           <t>29,90€</t>
         </is>
       </c>
-      <c r="C438" t="inlineStr">
+      <c r="C436" t="inlineStr">
         <is>
           <t>Home &gt; Sustainable accessories for men &gt; SMALL GREEN WAKAIALF TECH ORGANISER</t>
         </is>
       </c>
-      <c r="D438" t="inlineStr">
+      <c r="D436" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The small Wakai organiser is made of 100% recycled polyester. Recycled polyester cuts down on the use of fossil resources, CO2 emissions, and water and energy consumption by reusing plastic waste such as PET bottles, while maintaining the properties of virgin polyester. • Lining: 100% Recycled Polyamide • Filling: 100% PE • Vegan
@@ -16369,31 +16296,31 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E438" t="inlineStr">
+      <c r="E436" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/wakaialf-small-tech-organizer-forest-night-aw25</t>
         </is>
       </c>
     </row>
-    <row r="439">
-      <c r="A439" t="inlineStr">
+    <row r="437">
+      <c r="A437" t="inlineStr">
         <is>
           <t>Green
                         Wool
                         Hat</t>
         </is>
       </c>
-      <c r="B439" t="inlineStr">
+      <c r="B437" t="inlineStr">
         <is>
           <t>39,90€</t>
         </is>
       </c>
-      <c r="C439" t="inlineStr">
+      <c r="C437" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="D439" t="inlineStr">
+      <c r="D437" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Lana hat is made of 65% recycled wool and 35% LENZING™ ECOVERO™ Viscose. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. LENZING™ ECOVERO™ Viscose is a material obtained from sustainable wood and cellulose, through a certified and controlled production process that is environmentally responsible. • 5GG knit fabric made of traceable recycled wool blend and ECOVEROTM • Small ribbed edge detail • Perfect for the cold weather • Recycled woven label on the side
@@ -16405,31 +16332,31 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E439" t="inlineStr">
+      <c r="E437" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/wool-beanie-asteroid-aw25</t>
         </is>
       </c>
     </row>
-    <row r="440">
-      <c r="A440" t="inlineStr">
+    <row r="438">
+      <c r="A438" t="inlineStr">
         <is>
           <t>Brown
                         Wool
                         Hat</t>
         </is>
       </c>
-      <c r="B440" t="inlineStr">
+      <c r="B438" t="inlineStr">
         <is>
           <t>39,90€</t>
         </is>
       </c>
-      <c r="C440" t="inlineStr">
+      <c r="C438" t="inlineStr">
         <is>
           <t>Home &gt; Sustainable accessories for men &gt; BROWN WOOL HAT</t>
         </is>
       </c>
-      <c r="D440" t="inlineStr">
+      <c r="D438" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Lana hat is made of 65% recycled wool and 35% LENZING™ ECOVERO™ Viscose. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. LENZING™ ECOVERO™ Viscose is a material obtained from sustainable wood and cellulose, through a certified and controlled production process that is environmentally responsible. • 5GG knit fabric made of traceable recycled wool blend and ECOVEROTM • Small ribbed edge detail • Perfect for the cold weather • Recycled woven label on the side
@@ -16441,31 +16368,31 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E440" t="inlineStr">
+      <c r="E438" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/wool-beanie-biscotti-aw25</t>
         </is>
       </c>
     </row>
-    <row r="441">
-      <c r="A441" t="inlineStr">
+    <row r="439">
+      <c r="A439" t="inlineStr">
         <is>
           <t>Black
                         Wool
                         Hat</t>
         </is>
       </c>
-      <c r="B441" t="inlineStr">
+      <c r="B439" t="inlineStr">
         <is>
           <t>39,90€</t>
         </is>
       </c>
-      <c r="C441" t="inlineStr">
+      <c r="C439" t="inlineStr">
         <is>
           <t>Home &gt; Sustainable accessories for men &gt; BLACK WOOL HAT</t>
         </is>
       </c>
-      <c r="D441" t="inlineStr">
+      <c r="D439" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Lana hat is made of 65% recycled wool and 35% LENZING™ ECOVERO™ Viscose. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. LENZING™ ECOVERO™ Viscose is a material obtained from sustainable wood and cellulose, through a certified and controlled production process that is environmentally responsible. • 5GG knit fabric made of traceable recycled wool blend and ECOVEROTM • Small ribbed edge detail • Perfect for the cold weather • Recycled woven label on the side
@@ -16477,14 +16404,14 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E441" t="inlineStr">
+      <c r="E439" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/wool-beanie-black-aw25</t>
         </is>
       </c>
     </row>
-    <row r="442">
-      <c r="A442" t="inlineStr">
+    <row r="440">
+      <c r="A440" t="inlineStr">
         <is>
           <t>Navy
                         Blue
@@ -16492,17 +16419,17 @@
                         Hat</t>
         </is>
       </c>
-      <c r="B442" t="inlineStr">
+      <c r="B440" t="inlineStr">
         <is>
           <t>39,90€</t>
         </is>
       </c>
-      <c r="C442" t="inlineStr">
+      <c r="C440" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="D442" t="inlineStr">
+      <c r="D440" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Lana hat is made of 65% recycled wool and 35% LENZING™ ECOVERO™ Viscose. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. LENZING™ ECOVERO™ Viscose is a material obtained from sustainable wood and cellulose, through a certified and controlled production process that is environmentally responsible. • 5GG knit fabric made of traceable recycled wool blend and ECOVEROTM • Small ribbed edge detail • Perfect for the cold weather • Recycled woven label on the side
@@ -16514,31 +16441,31 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E442" t="inlineStr">
+      <c r="E440" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/wool-beanie-deep-navy-aw25</t>
         </is>
       </c>
     </row>
-    <row r="443">
-      <c r="A443" t="inlineStr">
+    <row r="441">
+      <c r="A441" t="inlineStr">
         <is>
           <t>Beige
                         Wool
                         Hat</t>
         </is>
       </c>
-      <c r="B443" t="inlineStr">
+      <c r="B441" t="inlineStr">
         <is>
           <t>39,90€</t>
         </is>
       </c>
-      <c r="C443" t="inlineStr">
+      <c r="C441" t="inlineStr">
         <is>
           <t>Home &gt; Sustainable accessories for men &gt; BEIGE WOOL HAT</t>
         </is>
       </c>
-      <c r="D443" t="inlineStr">
+      <c r="D441" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Lana hat is made of 65% recycled wool and 35% LENZING™ ECOVERO™ Viscose. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. LENZING™ ECOVERO™ Viscose is a material obtained from sustainable wood and cellulose, through a certified and controlled production process that is environmentally responsible. • 5GG knit fabric made of traceable recycled wool blend and ECOVEROTM • Small ribbed edge detail • Perfect for the cold weather • Recycled woven label on the side
@@ -16550,31 +16477,31 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E443" t="inlineStr">
+      <c r="E441" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/wool-beanie-light-grey-melange-aw25</t>
         </is>
       </c>
     </row>
-    <row r="444">
-      <c r="A444" t="inlineStr">
+    <row r="442">
+      <c r="A442" t="inlineStr">
         <is>
           <t>Brown
                         Wool
                         Hat</t>
         </is>
       </c>
-      <c r="B444" t="inlineStr">
+      <c r="B442" t="inlineStr">
         <is>
           <t>39,90€</t>
         </is>
       </c>
-      <c r="C444" t="inlineStr">
+      <c r="C442" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="D444" t="inlineStr">
+      <c r="D442" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Lana hat is made of 65% recycled wool and 35% LENZING™ ECOVERO™ Viscose. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. LENZING™ ECOVERO™ Viscose is a material obtained from sustainable wood and cellulose, through a certified and controlled production process that is environmentally responsible. • 5GG knit fabric made of traceable recycled wool blend and ECOVEROTM • Small ribbed edge detail • Perfect for the cold weather • Recycled woven label on the side
@@ -16586,14 +16513,14 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E444" t="inlineStr">
+      <c r="E442" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/wool-beanie-oat-melange-aw25</t>
         </is>
       </c>
     </row>
-    <row r="445">
-      <c r="A445" t="inlineStr">
+    <row r="443">
+      <c r="A443" t="inlineStr">
         <is>
           <t>Navy
                         Blue
@@ -16601,17 +16528,17 @@
                         Cap</t>
         </is>
       </c>
-      <c r="B445" t="inlineStr">
+      <c r="B443" t="inlineStr">
         <is>
           <t>45,00€</t>
         </is>
       </c>
-      <c r="C445" t="inlineStr">
+      <c r="C443" t="inlineStr">
         <is>
           <t>Home &gt; MEN'S CAPS &gt; NAVY BLUE WOOL CAP</t>
         </is>
       </c>
-      <c r="D445" t="inlineStr">
+      <c r="D443" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Wool cap is made of 50% recycled wool and 50% recycled polyester. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. Ideal for everyday use. • Size 59 (equivalent to European men’s size L) • Soft wool fabric for warmth, with cotton lining • Logo embroidered tone-on-tone • Black aged brass buckle at the back for size adjustment
@@ -16623,14 +16550,14 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E445" t="inlineStr">
+      <c r="E443" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/wool-cap-deep-navy-aw25</t>
         </is>
       </c>
     </row>
-    <row r="446">
-      <c r="A446" t="inlineStr">
+    <row r="444">
+      <c r="A444" t="inlineStr">
         <is>
           <t>Dark
                         Grey
@@ -16638,17 +16565,17 @@
                         Cap</t>
         </is>
       </c>
-      <c r="B446" t="inlineStr">
+      <c r="B444" t="inlineStr">
         <is>
           <t>45,00€</t>
         </is>
       </c>
-      <c r="C446" t="inlineStr">
+      <c r="C444" t="inlineStr">
         <is>
           <t>Home &gt; MEN'S CAPS &gt; DARK GREY WOOL CAP</t>
         </is>
       </c>
-      <c r="D446" t="inlineStr">
+      <c r="D444" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Wool cap is made of 50% recycled wool and 50% recycled polyester. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. Ideal for everyday use. • Size 59 (equivalent to European men’s size L) • Soft wool fabric for warmth, with cotton lining • Logo embroidered tone-on-tone • Black aged brass buckle at the back for size adjustment
@@ -16660,31 +16587,31 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E446" t="inlineStr">
+      <c r="E444" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/wool-cap-medium-grey-melange-aw25</t>
         </is>
       </c>
     </row>
-    <row r="447">
-      <c r="A447" t="inlineStr">
+    <row r="445">
+      <c r="A445" t="inlineStr">
         <is>
           <t>Green
                         Wool
                         Gloves</t>
         </is>
       </c>
-      <c r="B447" t="inlineStr">
+      <c r="B445" t="inlineStr">
         <is>
           <t>45,00€</t>
         </is>
       </c>
-      <c r="C447" t="inlineStr">
+      <c r="C445" t="inlineStr">
         <is>
           <t>Home &gt; Sustainable accessories for men &gt; GREEN WOOL GLOVES</t>
         </is>
       </c>
-      <c r="D447" t="inlineStr">
+      <c r="D445" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Lana gloves are made of 65% recycled wool and 35% LENZING™ ECOVERO™ Viscose. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. LENZING™ ECOVERO™ Viscose is a material obtained from sustainable wood and cellulose, through a certified and controlled production process that is environmentally responsible. • The gloves come in two sizes (standard men's and standard women's) with touchscreen-friendly fingertips • 5GG knit fabric made of a traceable blend of recycled wool and ecovero composition • Single Jersey knit and ribbed cuff with elastic finish • Perfect for the cold weather • Recycled label on the cuff
@@ -16696,31 +16623,31 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E447" t="inlineStr">
+      <c r="E445" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/wool-gloves-asteroid-aw25</t>
         </is>
       </c>
     </row>
-    <row r="448">
-      <c r="A448" t="inlineStr">
+    <row r="446">
+      <c r="A446" t="inlineStr">
         <is>
           <t>Black
                         Wool
                         Gloves</t>
         </is>
       </c>
-      <c r="B448" t="inlineStr">
+      <c r="B446" t="inlineStr">
         <is>
           <t>45,00€</t>
         </is>
       </c>
-      <c r="C448" t="inlineStr">
+      <c r="C446" t="inlineStr">
         <is>
           <t>Home &gt; Sustainable accessories for men &gt; BLACK WOOL GLOVES</t>
         </is>
       </c>
-      <c r="D448" t="inlineStr">
+      <c r="D446" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Lana gloves are made of 65% recycled wool and 35% LENZING™ ECOVERO™ Viscose. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. LENZING™ ECOVERO™ Viscose is a material obtained from sustainable wood and cellulose, through a certified and controlled production process that is environmentally responsible. • The gloves come in two sizes (standard men's and standard women's) with touchscreen-friendly fingertips • 5GG knit fabric made of a traceable blend of recycled wool and ecovero composition • Single Jersey knit and ribbed cuff with elastic finish • Perfect for the cold weather • Recycled label on the cuff
@@ -16732,31 +16659,31 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E448" t="inlineStr">
+      <c r="E446" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/wool-gloves-black-aw25</t>
         </is>
       </c>
     </row>
-    <row r="449">
-      <c r="A449" t="inlineStr">
+    <row r="447">
+      <c r="A447" t="inlineStr">
         <is>
           <t>Red
                         Wool
                         Gloves</t>
         </is>
       </c>
-      <c r="B449" t="inlineStr">
+      <c r="B447" t="inlineStr">
         <is>
           <t>45,00€</t>
         </is>
       </c>
-      <c r="C449" t="inlineStr">
+      <c r="C447" t="inlineStr">
         <is>
           <t>Home &gt; Sustainable accessories for men &gt; RED WOOL GLOVES</t>
         </is>
       </c>
-      <c r="D449" t="inlineStr">
+      <c r="D447" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Lana gloves are made of 65% recycled wool and 35% LENZING™ ECOVERO™ Viscose. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. LENZING™ ECOVERO™ Viscose is a material obtained from sustainable wood and cellulose, through a certified and controlled production process that is environmentally responsible. • The gloves come in two sizes (standard men's and standard women's) with touchscreen-friendly fingertips • 5GG knit fabric made of a traceable blend of recycled wool and ecovero composition • Single Jersey knit and ribbed cuff with elastic finish • Perfect for the cold weather • Recycled label on the cuff
@@ -16768,14 +16695,14 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E449" t="inlineStr">
+      <c r="E447" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/wool-gloves-dark-red-aw25</t>
         </is>
       </c>
     </row>
-    <row r="450">
-      <c r="A450" t="inlineStr">
+    <row r="448">
+      <c r="A448" t="inlineStr">
         <is>
           <t>Navy
                         Blue
@@ -16783,17 +16710,17 @@
                         Gloves</t>
         </is>
       </c>
-      <c r="B450" t="inlineStr">
+      <c r="B448" t="inlineStr">
         <is>
           <t>45,00€</t>
         </is>
       </c>
-      <c r="C450" t="inlineStr">
+      <c r="C448" t="inlineStr">
         <is>
           <t>Home &gt; Sustainable accessories for men &gt; NAVY BLUE WOOL GLOVES</t>
         </is>
       </c>
-      <c r="D450" t="inlineStr">
+      <c r="D448" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Lana gloves are made of 65% recycled wool and 35% LENZING™ ECOVERO™ Viscose. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. LENZING™ ECOVERO™ Viscose is a material obtained from sustainable wood and cellulose, through a certified and controlled production process that is environmentally responsible. • The gloves come in two sizes (standard men's and standard women's) with touchscreen-friendly fingertips • 5GG knit fabric made of a traceable blend of recycled wool and ecovero composition • Single Jersey knit and ribbed cuff with elastic finish • Perfect for the cold weather • Recycled label on the cuff
@@ -16805,31 +16732,31 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E450" t="inlineStr">
+      <c r="E448" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/wool-gloves-deep-navy-aw25</t>
         </is>
       </c>
     </row>
-    <row r="451">
-      <c r="A451" t="inlineStr">
+    <row r="449">
+      <c r="A449" t="inlineStr">
         <is>
           <t>Beige
                         Wool
                         Gloves</t>
         </is>
       </c>
-      <c r="B451" t="inlineStr">
+      <c r="B449" t="inlineStr">
         <is>
           <t>45,00€</t>
         </is>
       </c>
-      <c r="C451" t="inlineStr">
+      <c r="C449" t="inlineStr">
         <is>
           <t>Home &gt; Sustainable accessories for men &gt; BEIGE WOOL GLOVES</t>
         </is>
       </c>
-      <c r="D451" t="inlineStr">
+      <c r="D449" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Lana gloves are made of 65% recycled wool and 35% LENZING™ ECOVERO™ Viscose. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. LENZING™ ECOVERO™ Viscose is a material obtained from sustainable wood and cellulose, through a certified and controlled production process that is environmentally responsible. • The gloves come in two sizes (standard men's and standard women's) with touchscreen-friendly fingertips • 5GG knit fabric made of a traceable blend of recycled wool and ecovero composition • Single Jersey knit and ribbed cuff with elastic finish • Perfect for the cold weather • Recycled label on the cuff
@@ -16841,31 +16768,31 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E451" t="inlineStr">
+      <c r="E449" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/wool-gloves-oat-melange-aw25</t>
         </is>
       </c>
     </row>
-    <row r="452">
-      <c r="A452" t="inlineStr">
+    <row r="450">
+      <c r="A450" t="inlineStr">
         <is>
           <t>Green
                         Wool
                         Scarf</t>
         </is>
       </c>
-      <c r="B452" t="inlineStr">
+      <c r="B450" t="inlineStr">
         <is>
           <t>79,90€</t>
         </is>
       </c>
-      <c r="C452" t="inlineStr">
+      <c r="C450" t="inlineStr">
         <is>
           <t>Home &gt; Sustainable accessories for men &gt; GREEN WOOL SCARF</t>
         </is>
       </c>
-      <c r="D452" t="inlineStr">
+      <c r="D450" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Lana scarf is made of 65% recycled wool and 35% LENZING™ ECOVERO™ Viscose. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. LENZING™ ECOVERO™ Viscose is a material obtained from sustainable wood and cellulose, through a certified and controlled production process that is environmentally responsible. • The gloves come in two sizes (standard men's and standard women's) with touchscreen-friendly fingertips • 5GG knit fabric made of a traceable blend of recycled wool and ecovero composition • Single Jersey knit and ribbed cuff with elastic finish • Perfect for the cold weather • Recycled label on the cuff
@@ -16877,31 +16804,31 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E452" t="inlineStr">
+      <c r="E450" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/wool-scarf-asteroid-aw25</t>
         </is>
       </c>
     </row>
-    <row r="453">
-      <c r="A453" t="inlineStr">
+    <row r="451">
+      <c r="A451" t="inlineStr">
         <is>
           <t>Black
                         Wool
                         Scarf</t>
         </is>
       </c>
-      <c r="B453" t="inlineStr">
+      <c r="B451" t="inlineStr">
         <is>
           <t>79,90€</t>
         </is>
       </c>
-      <c r="C453" t="inlineStr">
+      <c r="C451" t="inlineStr">
         <is>
           <t>Home &gt; Sustainable accessories for men &gt; BLACK WOOL SCARF</t>
         </is>
       </c>
-      <c r="D453" t="inlineStr">
+      <c r="D451" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Lana scarf is made of 65% recycled wool and 35% LENZING™ ECOVERO™ Viscose. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. LENZING™ ECOVERO™ Viscose is a material obtained from sustainable wood and cellulose, through a certified and controlled production process that is environmentally responsible. • The gloves come in two sizes (standard men's and standard women's) with touchscreen-friendly fingertips • 5GG knit fabric made of a traceable blend of recycled wool and ecovero composition • Single Jersey knit and ribbed cuff with elastic finish • Perfect for the cold weather • Recycled label on the cuff
@@ -16913,50 +16840,14 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E453" t="inlineStr">
+      <c r="E451" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/wool-scarf-black-aw25</t>
         </is>
       </c>
     </row>
-    <row r="454">
-      <c r="A454" t="inlineStr">
-        <is>
-          <t>Red
-                        Wool
-                        Scarf</t>
-        </is>
-      </c>
-      <c r="B454" t="inlineStr">
-        <is>
-          <t>79,90€</t>
-        </is>
-      </c>
-      <c r="C454" t="inlineStr">
-        <is>
-          <t>Home &gt; Sustainable accessories for men &gt; RED WOOL SCARF</t>
-        </is>
-      </c>
-      <c r="D454" t="inlineStr">
-        <is>
-          <t>[PRODUCT DETAILS]
-The Lana scarf is made of 65% recycled wool and 35% LENZING™ ECOVERO™ Viscose. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. LENZING™ ECOVERO™ Viscose is a material obtained from sustainable wood and cellulose, through a certified and controlled production process that is environmentally responsible. • The gloves come in two sizes (standard men's and standard women's) with touchscreen-friendly fingertips • 5GG knit fabric made of a traceable blend of recycled wool and ecovero composition • Single Jersey knit and ribbed cuff with elastic finish • Perfect for the cold weather • Recycled label on the cuff
-[SUSTAINABILITY REPORT]
-194,45 liters of water used 76% % of liters saved 5,69 kg CO2 eq used 74% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
-and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
-[SUSTAINABILITY REPORT]
-194,45 liters of water used 76% % of liters saved 5,69 kg CO2 eq used 74% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
-and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
-        </is>
-      </c>
-      <c r="E454" t="inlineStr">
-        <is>
-          <t>https://ecoalf.com/en/products/wool-scarf-dark-red-aw25</t>
-        </is>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" t="inlineStr">
+    <row r="452">
+      <c r="A452" t="inlineStr">
         <is>
           <t>Navy
                         Blue
@@ -16964,17 +16855,17 @@
                         Scarf</t>
         </is>
       </c>
-      <c r="B455" t="inlineStr">
+      <c r="B452" t="inlineStr">
         <is>
           <t>79,90€</t>
         </is>
       </c>
-      <c r="C455" t="inlineStr">
+      <c r="C452" t="inlineStr">
         <is>
           <t>Home &gt; Sustainable accessories for men &gt; NAVY BLUE WOOL SCARF</t>
         </is>
       </c>
-      <c r="D455" t="inlineStr">
+      <c r="D452" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Lana scarf is made of 65% recycled wool and 35% LENZING™ ECOVERO™ Viscose. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. LENZING™ ECOVERO™ Viscose is a material obtained from sustainable wood and cellulose, through a certified and controlled production process that is environmentally responsible. • The gloves come in two sizes (standard men's and standard women's) with touchscreen-friendly fingertips • 5GG knit fabric made of a traceable blend of recycled wool and ecovero composition • Single Jersey knit and ribbed cuff with elastic finish • Perfect for the cold weather • Recycled label on the cuff
@@ -16986,31 +16877,31 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E455" t="inlineStr">
+      <c r="E452" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/wool-scarf-deep-navy-aw25</t>
         </is>
       </c>
     </row>
-    <row r="456">
-      <c r="A456" t="inlineStr">
+    <row r="453">
+      <c r="A453" t="inlineStr">
         <is>
           <t>Beige
                         Wool
                         Scarf</t>
         </is>
       </c>
-      <c r="B456" t="inlineStr">
+      <c r="B453" t="inlineStr">
         <is>
           <t>79,90€</t>
         </is>
       </c>
-      <c r="C456" t="inlineStr">
+      <c r="C453" t="inlineStr">
         <is>
           <t>Home &gt; Sustainable accessories for men &gt; BEIGE WOOL SCARF</t>
         </is>
       </c>
-      <c r="D456" t="inlineStr">
+      <c r="D453" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Lana scarf is made of 65% recycled wool and 35% LENZING™ ECOVERO™ Viscose. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. LENZING™ ECOVERO™ Viscose is a material obtained from sustainable wood and cellulose, through a certified and controlled production process that is environmentally responsible. • The gloves come in two sizes (standard men's and standard women's) with touchscreen-friendly fingertips • 5GG knit fabric made of a traceable blend of recycled wool and ecovero composition • Single Jersey knit and ribbed cuff with elastic finish • Perfect for the cold weather • Recycled label on the cuff
@@ -17022,14 +16913,14 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E456" t="inlineStr">
+      <c r="E453" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/wool-scarf-oat-melange-aw25</t>
         </is>
       </c>
     </row>
-    <row r="457">
-      <c r="A457" t="inlineStr">
+    <row r="454">
+      <c r="A454" t="inlineStr">
         <is>
           <t>Dark
                         Green
@@ -17037,17 +16928,17 @@
                         Hat</t>
         </is>
       </c>
-      <c r="B457" t="inlineStr">
+      <c r="B454" t="inlineStr">
         <is>
           <t>39,90€</t>
         </is>
       </c>
-      <c r="C457" t="inlineStr">
+      <c r="C454" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="D457" t="inlineStr">
+      <c r="D454" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Wool beanie is made of 65% recycled wool, the alternative we use at ECOALF to avoid the use of virgin materials of animal origin. A very warm beanie made with the best quality fibres so you won't get cold. Main fabric: 65% recycled wool / 35% Ecovero ECOALF logo on front
@@ -17059,31 +16950,31 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E457" t="inlineStr">
+      <c r="E454" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/woolalf-beanie-beetle-aw24</t>
         </is>
       </c>
     </row>
-    <row r="458">
-      <c r="A458" t="inlineStr">
+    <row r="455">
+      <c r="A455" t="inlineStr">
         <is>
           <t>Grey
                         Wool
                         Hat</t>
         </is>
       </c>
-      <c r="B458" t="inlineStr">
+      <c r="B455" t="inlineStr">
         <is>
           <t>39,90€</t>
         </is>
       </c>
-      <c r="C458" t="inlineStr">
+      <c r="C455" t="inlineStr">
         <is>
           <t>Home &gt; Sustainable accessories for men &gt; GREY WOOL HAT</t>
         </is>
       </c>
-      <c r="D458" t="inlineStr">
+      <c r="D455" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Wool beanie is made of 65% recycled wool, the alternative we use at ECOALF to avoid the use of virgin materials of animal origin. A very warm beanie made with the best quality fibres so you won't get cold. Main fabric: 65% recycled wool / 35% Ecovero ECOALF logo on front
@@ -17095,31 +16986,31 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E458" t="inlineStr">
+      <c r="E455" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/woolalf-beanie-medium-grey-melange-aw24</t>
         </is>
       </c>
     </row>
-    <row r="459">
-      <c r="A459" t="inlineStr">
+    <row r="456">
+      <c r="A456" t="inlineStr">
         <is>
           <t>Grey
                         Yvi
                         Sweater</t>
         </is>
       </c>
-      <c r="B459" t="inlineStr">
+      <c r="B456" t="inlineStr">
         <is>
           <t>89,90€</t>
         </is>
       </c>
-      <c r="C459" t="inlineStr">
+      <c r="C456" t="inlineStr">
         <is>
           <t>Home &gt; Sustainable women’s clothing: your style begins with a responsible choice &gt; GREY YVI SWEATER</t>
         </is>
       </c>
-      <c r="D459" t="inlineStr">
+      <c r="D456" t="inlineStr">
         <is>
           <t>[PRODUCT DETAILS]
 The Yvi sweater is made of 50% recycled wool and 50% TENCEL™ Lyocell. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. TENCEL™ Lyocell fibres come from wood pulp from certified forests and closed-loop processes in accordance with the most stringent environmental standards. Wool slim-fit sweater with buttons, perfect for business meetings or informal events that call for a polished and comfortable look. • Slim fit • Ribbed body with 14GG knit • Central front placket with button fastening
@@ -17131,7 +17022,7 @@
 and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
         </is>
       </c>
-      <c r="E459" t="inlineStr">
+      <c r="E456" t="inlineStr">
         <is>
           <t>https://ecoalf.com/en/products/yvi-knit-woman-medium-grey-melange-aw25</t>
         </is>
